--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>890245.8755090701</v>
+        <v>889460.1468733136</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736572</v>
+        <v>504792.0292736561</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="S8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="V10" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.816525072005941</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.8114212434715</v>
+        <v>290.2969820162479</v>
       </c>
       <c r="C11" t="n">
-        <v>278.3082989739299</v>
+        <v>278.3082989739297</v>
       </c>
       <c r="D11" t="n">
-        <v>269.2896030184579</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>291.0317405883632</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>96.06340713685717</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>311.6157125112765</v>
       </c>
       <c r="H11" t="n">
-        <v>224.3501006421344</v>
+        <v>224.3501006421342</v>
       </c>
       <c r="I11" t="n">
-        <v>51.19273190769516</v>
+        <v>51.19273190769495</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.67572238545048</v>
+        <v>73.67572238545027</v>
       </c>
       <c r="T11" t="n">
-        <v>120.028066646174</v>
+        <v>120.0280666461738</v>
       </c>
       <c r="U11" t="n">
-        <v>152.4886718515561</v>
+        <v>152.4886718515559</v>
       </c>
       <c r="V11" t="n">
-        <v>233.8033592564273</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>259.1034587343842</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>278.4037169671308</v>
+        <v>278.4037169671305</v>
       </c>
       <c r="Y11" t="n">
-        <v>289.8003147633295</v>
+        <v>289.8003147633293</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H12" t="n">
-        <v>96.24566916700709</v>
+        <v>96.24566916700776</v>
       </c>
       <c r="I12" t="n">
         <v>58.09875481045882</v>
@@ -1512,7 +1512,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409819</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.9136928909452</v>
+        <v>81.91369289094499</v>
       </c>
       <c r="C13" t="n">
-        <v>68.11368773634568</v>
+        <v>68.11368773634547</v>
       </c>
       <c r="D13" t="n">
-        <v>51.73505213392407</v>
+        <v>51.73505213392386</v>
       </c>
       <c r="E13" t="n">
-        <v>50.68280198970352</v>
+        <v>50.68280198970331</v>
       </c>
       <c r="F13" t="n">
-        <v>51.14972631788983</v>
+        <v>51.14972631788962</v>
       </c>
       <c r="G13" t="n">
-        <v>67.19067610792975</v>
+        <v>67.19067610792953</v>
       </c>
       <c r="H13" t="n">
-        <v>55.8945205999358</v>
+        <v>55.89452059993559</v>
       </c>
       <c r="I13" t="n">
-        <v>35.92530369433365</v>
+        <v>35.92530369433344</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.71005966291114</v>
+        <v>37.71005966291092</v>
       </c>
       <c r="S13" t="n">
-        <v>34.94460685486439</v>
+        <v>107.6928667790556</v>
       </c>
       <c r="T13" t="n">
-        <v>130.0422790212078</v>
+        <v>57.29401909702106</v>
       </c>
       <c r="U13" t="n">
-        <v>184.4994648493108</v>
+        <v>184.4994648493105</v>
       </c>
       <c r="V13" t="n">
-        <v>158.3218292905708</v>
+        <v>158.3218292905706</v>
       </c>
       <c r="W13" t="n">
-        <v>183.4887153611841</v>
+        <v>183.4887153611838</v>
       </c>
       <c r="X13" t="n">
-        <v>129.1338173569872</v>
+        <v>129.133817356987</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.0086851130549</v>
+        <v>120.0086851130546</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.68556193441364</v>
+        <v>119.7451533082688</v>
       </c>
       <c r="C14" t="n">
         <v>275.2568804005518</v>
@@ -1622,10 +1622,10 @@
         <v>308.5642939378986</v>
       </c>
       <c r="H14" t="n">
-        <v>221.2986820687563</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.14131333431706</v>
+        <v>48.14131333431708</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.62430381207243</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.4372532781781</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>230.7519406830492</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>256.0520401610061</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.86227431756711</v>
+        <v>78.86227431756713</v>
       </c>
       <c r="C16" t="n">
-        <v>65.0622691629676</v>
+        <v>65.06226916296761</v>
       </c>
       <c r="D16" t="n">
-        <v>48.68363356054599</v>
+        <v>48.683633560546</v>
       </c>
       <c r="E16" t="n">
-        <v>47.63138341632543</v>
+        <v>47.63138341632545</v>
       </c>
       <c r="F16" t="n">
-        <v>48.09830774451174</v>
+        <v>48.09830774451176</v>
       </c>
       <c r="G16" t="n">
-        <v>64.13925753455166</v>
+        <v>64.13925753455167</v>
       </c>
       <c r="H16" t="n">
-        <v>52.84310202655772</v>
+        <v>52.84310202655773</v>
       </c>
       <c r="I16" t="n">
-        <v>32.87388512095555</v>
+        <v>32.87388512095556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65864108953303</v>
+        <v>34.65864108953305</v>
       </c>
       <c r="S16" t="n">
         <v>104.6414482056777</v>
@@ -1856,10 +1856,10 @@
         <v>255.9594061952675</v>
       </c>
       <c r="G17" t="n">
-        <v>91.64583012416654</v>
+        <v>257.3715620302036</v>
       </c>
       <c r="H17" t="n">
-        <v>170.1059501610613</v>
+        <v>23.81179015940117</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.43157190437744</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>65.78391616510096</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.31387192277721</v>
+        <v>53.44871629798278</v>
       </c>
       <c r="T19" t="n">
         <v>75.79812854013475</v>
@@ -2065,7 +2065,7 @@
         <v>129.244564880111</v>
       </c>
       <c r="X19" t="n">
-        <v>74.88966687591412</v>
+        <v>103.7548225007085</v>
       </c>
       <c r="Y19" t="n">
         <v>65.7645346319818</v>
@@ -2090,7 +2090,7 @@
         <v>236.7875901072903</v>
       </c>
       <c r="F20" t="n">
-        <v>90.23367428923072</v>
+        <v>255.9594061952675</v>
       </c>
       <c r="G20" t="n">
         <v>257.3715620302036</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.43157190437744</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>65.78391616510096</v>
@@ -2147,7 +2147,7 @@
         <v>224.1595664860577</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.5561642822565</v>
+        <v>89.26200428059663</v>
       </c>
     </row>
     <row r="21">
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.87515724247929</v>
+        <v>41.87515724247977</v>
       </c>
       <c r="S21" t="n">
-        <v>146.0925415591173</v>
+        <v>146.0925415591167</v>
       </c>
       <c r="T21" t="n">
         <v>185.6744144100665</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.57834747578151</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.44871629798278</v>
+        <v>82.31387192277721</v>
       </c>
       <c r="T22" t="n">
         <v>75.79812854013475</v>
@@ -2305,7 +2305,7 @@
         <v>74.88966687591412</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.05134278099459</v>
+        <v>65.7645346319818</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.43157190437744</v>
+        <v>19.43157190437745</v>
       </c>
       <c r="T23" t="n">
-        <v>65.78391616510096</v>
+        <v>65.78391616510095</v>
       </c>
       <c r="U23" t="n">
         <v>98.24452137048311</v>
@@ -2536,10 +2536,10 @@
         <v>104.0776788094977</v>
       </c>
       <c r="W25" t="n">
-        <v>158.1097205049055</v>
+        <v>129.244564880111</v>
       </c>
       <c r="X25" t="n">
-        <v>74.88966687591412</v>
+        <v>103.7548225007086</v>
       </c>
       <c r="Y25" t="n">
         <v>65.7645346319818</v>
@@ -2570,10 +2570,10 @@
         <v>308.5642939378986</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2986820687563</v>
+        <v>221.2986820687564</v>
       </c>
       <c r="I26" t="n">
-        <v>48.14131333431706</v>
+        <v>48.14131333431713</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.62430381207241</v>
+        <v>70.62430381207244</v>
       </c>
       <c r="T26" t="n">
         <v>116.976648072796</v>
@@ -2612,7 +2612,7 @@
         <v>149.4372532781781</v>
       </c>
       <c r="V26" t="n">
-        <v>230.7519406830492</v>
+        <v>136.8531860314756</v>
       </c>
       <c r="W26" t="n">
         <v>256.0520401610061</v>
@@ -2621,7 +2621,7 @@
         <v>275.3522983937527</v>
       </c>
       <c r="Y26" t="n">
-        <v>192.8501415383801</v>
+        <v>286.7488961899515</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H27" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I27" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045883</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.87515724247926</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S27" t="n">
         <v>146.0925415591167</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.86227431756714</v>
+        <v>78.86227431756716</v>
       </c>
       <c r="C28" t="n">
-        <v>65.06226916296762</v>
+        <v>65.06226916296764</v>
       </c>
       <c r="D28" t="n">
-        <v>48.68363356054601</v>
+        <v>48.68363356054603</v>
       </c>
       <c r="E28" t="n">
-        <v>47.63138341632546</v>
+        <v>47.63138341632548</v>
       </c>
       <c r="F28" t="n">
-        <v>48.09830774451177</v>
+        <v>48.09830774451179</v>
       </c>
       <c r="G28" t="n">
-        <v>64.13925753455169</v>
+        <v>64.1392575345517</v>
       </c>
       <c r="H28" t="n">
-        <v>52.84310202655774</v>
+        <v>52.84310202655777</v>
       </c>
       <c r="I28" t="n">
-        <v>32.87388512095558</v>
+        <v>32.87388512095561</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65864108953306</v>
+        <v>34.65864108953309</v>
       </c>
       <c r="S28" t="n">
         <v>104.6414482056778</v>
       </c>
       <c r="T28" t="n">
-        <v>126.9908604478297</v>
+        <v>126.9908604478298</v>
       </c>
       <c r="U28" t="n">
         <v>181.4480462759327</v>
       </c>
       <c r="V28" t="n">
-        <v>155.2704107171927</v>
+        <v>155.2704107171928</v>
       </c>
       <c r="W28" t="n">
         <v>180.437296787806</v>
@@ -2795,7 +2795,7 @@
         <v>275.2568804005518</v>
       </c>
       <c r="D29" t="n">
-        <v>172.3394297935069</v>
+        <v>266.2381844450798</v>
       </c>
       <c r="E29" t="n">
         <v>287.9803220149853</v>
@@ -2810,7 +2810,7 @@
         <v>221.2986820687563</v>
       </c>
       <c r="I29" t="n">
-        <v>48.14131333431708</v>
+        <v>48.14131333431706</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>230.7519406830492</v>
       </c>
       <c r="W29" t="n">
-        <v>256.0520401610061</v>
+        <v>162.1532855094327</v>
       </c>
       <c r="X29" t="n">
         <v>275.3522983937527</v>
@@ -2886,10 +2886,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H30" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I30" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045882</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.87515724247927</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S30" t="n">
         <v>146.0925415591167</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.86227431756713</v>
+        <v>78.86227431756711</v>
       </c>
       <c r="C31" t="n">
-        <v>65.06226916296761</v>
+        <v>65.0622691629676</v>
       </c>
       <c r="D31" t="n">
-        <v>48.683633560546</v>
+        <v>48.68363356054599</v>
       </c>
       <c r="E31" t="n">
-        <v>47.63138341632545</v>
+        <v>47.63138341632543</v>
       </c>
       <c r="F31" t="n">
-        <v>48.09830774451176</v>
+        <v>48.09830774451174</v>
       </c>
       <c r="G31" t="n">
-        <v>64.13925753455167</v>
+        <v>64.13925753455166</v>
       </c>
       <c r="H31" t="n">
-        <v>52.84310202655773</v>
+        <v>52.84310202655772</v>
       </c>
       <c r="I31" t="n">
-        <v>32.87388512095557</v>
+        <v>32.87388512095556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65864108953306</v>
+        <v>34.65864108953305</v>
       </c>
       <c r="S31" t="n">
-        <v>104.6414482056778</v>
+        <v>104.6414482056777</v>
       </c>
       <c r="T31" t="n">
         <v>126.9908604478297</v>
@@ -3035,19 +3035,19 @@
         <v>257.3885633735882</v>
       </c>
       <c r="E32" t="n">
-        <v>279.1307009434938</v>
+        <v>279.1307009434937</v>
       </c>
       <c r="F32" t="n">
         <v>298.3025170314709</v>
       </c>
       <c r="G32" t="n">
-        <v>299.7146728664071</v>
+        <v>299.714672866407</v>
       </c>
       <c r="H32" t="n">
         <v>212.4490609972648</v>
       </c>
       <c r="I32" t="n">
-        <v>39.29169226282553</v>
+        <v>39.29169226282551</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H33" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I33" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045882</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.87515724247927</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S33" t="n">
         <v>146.0925415591167</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.01265324607559</v>
+        <v>70.01265324607556</v>
       </c>
       <c r="C34" t="n">
-        <v>56.21264809147607</v>
+        <v>56.21264809147604</v>
       </c>
       <c r="D34" t="n">
-        <v>39.83401248905446</v>
+        <v>39.83401248905443</v>
       </c>
       <c r="E34" t="n">
-        <v>38.78176234483391</v>
+        <v>38.78176234483388</v>
       </c>
       <c r="F34" t="n">
-        <v>39.24868667302022</v>
+        <v>39.24868667302019</v>
       </c>
       <c r="G34" t="n">
-        <v>55.28963646306013</v>
+        <v>55.2896364630601</v>
       </c>
       <c r="H34" t="n">
-        <v>43.99348095506619</v>
+        <v>43.99348095506616</v>
       </c>
       <c r="I34" t="n">
-        <v>24.02426404946403</v>
+        <v>24.02426404946401</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.80902001804152</v>
+        <v>25.80902001804149</v>
       </c>
       <c r="S34" t="n">
-        <v>95.79182713418622</v>
+        <v>95.79182713418619</v>
       </c>
       <c r="T34" t="n">
         <v>118.1412393763382</v>
       </c>
       <c r="U34" t="n">
-        <v>172.5984252044412</v>
+        <v>172.5984252044411</v>
       </c>
       <c r="V34" t="n">
-        <v>146.4207896457012</v>
+        <v>146.4207896457011</v>
       </c>
       <c r="W34" t="n">
         <v>171.5876757163144</v>
       </c>
       <c r="X34" t="n">
-        <v>117.2327777121176</v>
+        <v>117.2327777121175</v>
       </c>
       <c r="Y34" t="n">
         <v>108.1076454681852</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.0528315351749</v>
+        <v>236.0528315351751</v>
       </c>
       <c r="C35" t="n">
-        <v>224.0641484928567</v>
+        <v>224.0641484928569</v>
       </c>
       <c r="D35" t="n">
-        <v>215.0454525373846</v>
+        <v>215.0454525373848</v>
       </c>
       <c r="E35" t="n">
-        <v>236.7875901072902</v>
+        <v>236.7875901072904</v>
       </c>
       <c r="F35" t="n">
-        <v>255.9594061952673</v>
+        <v>255.9594061952675</v>
       </c>
       <c r="G35" t="n">
-        <v>257.3715620302034</v>
+        <v>257.3715620302037</v>
       </c>
       <c r="H35" t="n">
-        <v>170.1059501610612</v>
+        <v>170.1059501610614</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.43157190437729</v>
+        <v>19.43157190437749</v>
       </c>
       <c r="T35" t="n">
-        <v>65.78391616510082</v>
+        <v>65.78391616510102</v>
       </c>
       <c r="U35" t="n">
-        <v>98.24452137048297</v>
+        <v>98.24452137048317</v>
       </c>
       <c r="V35" t="n">
-        <v>179.5592087753541</v>
+        <v>179.5592087753543</v>
       </c>
       <c r="W35" t="n">
-        <v>204.859308253311</v>
+        <v>204.8593082533112</v>
       </c>
       <c r="X35" t="n">
-        <v>224.1595664860576</v>
+        <v>224.1595664860578</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.5561642822563</v>
+        <v>235.5561642822565</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H36" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I36" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045882</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.87515724247927</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S36" t="n">
         <v>146.0925415591167</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.66954240987201</v>
+        <v>27.66954240987221</v>
       </c>
       <c r="C37" t="n">
-        <v>13.86953725527249</v>
+        <v>13.86953725527269</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.86515562479392</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.94652562685655</v>
+        <v>12.94652562685675</v>
       </c>
       <c r="H37" t="n">
-        <v>1.650370118862613</v>
+        <v>1.650370118862813</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.44871629798264</v>
+        <v>53.44871629798284</v>
       </c>
       <c r="T37" t="n">
-        <v>75.79812854013461</v>
+        <v>75.79812854013481</v>
       </c>
       <c r="U37" t="n">
-        <v>130.2553143682376</v>
+        <v>130.2553143682378</v>
       </c>
       <c r="V37" t="n">
-        <v>104.0776788094976</v>
+        <v>104.0776788094978</v>
       </c>
       <c r="W37" t="n">
-        <v>129.2445648801109</v>
+        <v>129.2445648801111</v>
       </c>
       <c r="X37" t="n">
-        <v>74.88966687591397</v>
+        <v>74.88966687591417</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.62969025677799</v>
+        <v>65.76453463198186</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.0528315351749</v>
+        <v>236.0528315351751</v>
       </c>
       <c r="C38" t="n">
-        <v>224.0641484928567</v>
+        <v>224.0641484928569</v>
       </c>
       <c r="D38" t="n">
-        <v>215.0454525373846</v>
+        <v>215.0454525373848</v>
       </c>
       <c r="E38" t="n">
-        <v>236.7875901072902</v>
+        <v>236.7875901072904</v>
       </c>
       <c r="F38" t="n">
-        <v>255.9594061952673</v>
+        <v>255.9594061952675</v>
       </c>
       <c r="G38" t="n">
-        <v>257.3715620302034</v>
+        <v>257.3715620302037</v>
       </c>
       <c r="H38" t="n">
-        <v>170.1059501610612</v>
+        <v>170.1059501610614</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.43157190437729</v>
+        <v>19.43157190437749</v>
       </c>
       <c r="T38" t="n">
-        <v>65.78391616510082</v>
+        <v>65.78391616510102</v>
       </c>
       <c r="U38" t="n">
-        <v>98.24452137048297</v>
+        <v>98.24452137048317</v>
       </c>
       <c r="V38" t="n">
-        <v>179.5592087753541</v>
+        <v>179.5592087753543</v>
       </c>
       <c r="W38" t="n">
-        <v>204.859308253311</v>
+        <v>204.8593082533112</v>
       </c>
       <c r="X38" t="n">
-        <v>224.1595664860576</v>
+        <v>224.1595664860578</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.5561642822563</v>
+        <v>235.5561642822565</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H39" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I39" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045882</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.87515724247927</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S39" t="n">
         <v>146.0925415591167</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.66954240987201</v>
+        <v>27.66954240987221</v>
       </c>
       <c r="C40" t="n">
-        <v>13.86953725527249</v>
+        <v>13.86953725527269</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.81168125165271</v>
+        <v>12.94652562685675</v>
       </c>
       <c r="H40" t="n">
-        <v>1.650370118862613</v>
+        <v>1.650370118862813</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.44871629798264</v>
+        <v>82.31387192277676</v>
       </c>
       <c r="T40" t="n">
-        <v>75.79812854013461</v>
+        <v>75.79812854013481</v>
       </c>
       <c r="U40" t="n">
-        <v>130.2553143682376</v>
+        <v>130.2553143682378</v>
       </c>
       <c r="V40" t="n">
-        <v>104.0776788094976</v>
+        <v>104.0776788094978</v>
       </c>
       <c r="W40" t="n">
-        <v>129.2445648801109</v>
+        <v>129.2445648801111</v>
       </c>
       <c r="X40" t="n">
-        <v>74.88966687591397</v>
+        <v>74.88966687591417</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.76453463198166</v>
+        <v>65.76453463198186</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.0528315351749</v>
+        <v>236.0528315351751</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0641484928566</v>
+        <v>224.0641484928569</v>
       </c>
       <c r="D41" t="n">
-        <v>215.0454525373846</v>
+        <v>215.0454525373848</v>
       </c>
       <c r="E41" t="n">
-        <v>236.7875901072901</v>
+        <v>236.7875901072904</v>
       </c>
       <c r="F41" t="n">
-        <v>255.9594061952673</v>
+        <v>255.9594061952675</v>
       </c>
       <c r="G41" t="n">
-        <v>257.3715620302034</v>
+        <v>257.3715620302037</v>
       </c>
       <c r="H41" t="n">
-        <v>170.1059501610611</v>
+        <v>170.1059501610614</v>
       </c>
       <c r="I41" t="n">
-        <v>4.108073881070595e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.43157190437723</v>
+        <v>19.43157190437749</v>
       </c>
       <c r="T41" t="n">
-        <v>65.78391616510076</v>
+        <v>65.78391616510102</v>
       </c>
       <c r="U41" t="n">
-        <v>98.24452137048291</v>
+        <v>98.24452137048317</v>
       </c>
       <c r="V41" t="n">
-        <v>179.559208775354</v>
+        <v>179.5592087753543</v>
       </c>
       <c r="W41" t="n">
-        <v>204.8593082533109</v>
+        <v>204.8593082533112</v>
       </c>
       <c r="X41" t="n">
-        <v>224.1595664860575</v>
+        <v>224.1595664860578</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.5561642822563</v>
+        <v>235.5561642822565</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H42" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I42" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045882</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.87515724247927</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S42" t="n">
         <v>146.0925415591167</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.66954240987195</v>
+        <v>27.66954240987221</v>
       </c>
       <c r="C43" t="n">
-        <v>13.86953725527243</v>
+        <v>13.86953725527269</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.94652562685649</v>
+        <v>12.94652562685675</v>
       </c>
       <c r="H43" t="n">
-        <v>1.650370118862556</v>
+        <v>1.650370118862813</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.44871629798258</v>
+        <v>53.44871629798284</v>
       </c>
       <c r="T43" t="n">
-        <v>75.79812854013456</v>
+        <v>75.79812854013481</v>
       </c>
       <c r="U43" t="n">
-        <v>130.2553143682375</v>
+        <v>130.2553143682378</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9428344342943</v>
+        <v>132.9428344342917</v>
       </c>
       <c r="W43" t="n">
-        <v>129.2445648801108</v>
+        <v>129.2445648801111</v>
       </c>
       <c r="X43" t="n">
-        <v>74.88966687591392</v>
+        <v>74.88966687591417</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.7645346319816</v>
+        <v>65.76453463198186</v>
       </c>
     </row>
     <row r="44">
@@ -4034,10 +4034,10 @@
         <v>101.295939943861</v>
       </c>
       <c r="V44" t="n">
-        <v>162.373757799194</v>
+        <v>182.6106273487321</v>
       </c>
       <c r="W44" t="n">
-        <v>207.910726826689</v>
+        <v>187.6738572771542</v>
       </c>
       <c r="X44" t="n">
         <v>227.2109850594356</v>
@@ -4071,10 +4071,10 @@
         <v>127.1623954427604</v>
       </c>
       <c r="H45" t="n">
-        <v>96.24566916700708</v>
+        <v>96.24566916700709</v>
       </c>
       <c r="I45" t="n">
-        <v>58.09875481045881</v>
+        <v>58.09875481045882</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.87515724247928</v>
+        <v>41.87515724247929</v>
       </c>
       <c r="S45" t="n">
         <v>146.0925415591167</v>
@@ -4150,7 +4150,7 @@
         <v>15.99794420023459</v>
       </c>
       <c r="H46" t="n">
-        <v>4.701788692240656</v>
+        <v>4.701788692240658</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="F8" t="n">
         <v>21.02234760148574</v>
       </c>
-      <c r="C8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="E8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>10.91156095206012</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.8007743026345088</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
@@ -4805,49 +4805,49 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N8" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O8" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S8" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T8" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U8" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
         <v>10.91156095206012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K9" t="n">
         <v>10.71035629773655</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.21955114152135</v>
       </c>
       <c r="L9" t="n">
         <v>20.21955114152135</v>
@@ -4905,28 +4905,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
     </row>
     <row r="10">
@@ -4966,7 +4966,7 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M10" t="n">
         <v>10.3099691464193</v>
@@ -4990,16 +4990,16 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V10" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W10" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X10" t="n">
         <v>0.8007743026345088</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>882.1099043281548</v>
+        <v>1315.868750002941</v>
       </c>
       <c r="C11" t="n">
-        <v>600.9904104150943</v>
+        <v>1034.74925608988</v>
       </c>
       <c r="D11" t="n">
-        <v>328.98071039645</v>
+        <v>1034.74925608988</v>
       </c>
       <c r="E11" t="n">
-        <v>328.98071039645</v>
+        <v>740.7778009501199</v>
       </c>
       <c r="F11" t="n">
-        <v>328.98071039645</v>
+        <v>643.7440563674359</v>
       </c>
       <c r="G11" t="n">
-        <v>328.98071039645</v>
+        <v>328.9807103964496</v>
       </c>
       <c r="H11" t="n">
-        <v>102.3644471215668</v>
+        <v>102.3644471215666</v>
       </c>
       <c r="I11" t="n">
-        <v>50.65461691177369</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="J11" t="n">
         <v>166.4396087488978</v>
       </c>
       <c r="K11" t="n">
-        <v>472.2045152269967</v>
+        <v>472.2045152269968</v>
       </c>
       <c r="L11" t="n">
         <v>901.5029261947534</v>
@@ -5057,34 +5057,34 @@
         <v>2247.642726492804</v>
       </c>
       <c r="P11" t="n">
-        <v>2382.5870940667</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2532.730845588684</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="R11" t="n">
-        <v>2532.730845588684</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="S11" t="n">
-        <v>2458.310923987219</v>
+        <v>2458.310923987221</v>
       </c>
       <c r="T11" t="n">
-        <v>2337.070452627448</v>
+        <v>2337.070452627449</v>
       </c>
       <c r="U11" t="n">
-        <v>2183.041491161229</v>
+        <v>2183.041491161232</v>
       </c>
       <c r="V11" t="n">
-        <v>1946.876481811303</v>
+        <v>2183.041491161232</v>
       </c>
       <c r="W11" t="n">
-        <v>1685.155816423036</v>
+        <v>2183.041491161232</v>
       </c>
       <c r="X11" t="n">
-        <v>1403.939940698662</v>
+        <v>1901.825615436857</v>
       </c>
       <c r="Y11" t="n">
-        <v>1111.212350028631</v>
+        <v>1609.098024766828</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.2690573205547</v>
+        <v>917.2690573205552</v>
       </c>
       <c r="C12" t="n">
-        <v>755.5653845615094</v>
+        <v>755.56538456151</v>
       </c>
       <c r="D12" t="n">
-        <v>616.7267475517215</v>
+        <v>616.726747551722</v>
       </c>
       <c r="E12" t="n">
-        <v>469.6987376085926</v>
+        <v>469.6987376085933</v>
       </c>
       <c r="F12" t="n">
-        <v>335.004939558467</v>
+        <v>335.0049395584676</v>
       </c>
       <c r="G12" t="n">
-        <v>206.5580754748706</v>
+        <v>206.5580754748713</v>
       </c>
       <c r="H12" t="n">
         <v>109.3402278314291</v>
       </c>
       <c r="I12" t="n">
-        <v>50.65461691177369</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="J12" t="n">
-        <v>136.9876716469921</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="K12" t="n">
-        <v>411.0512321119749</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="L12" t="n">
-        <v>836.8069870609108</v>
+        <v>476.4103718607097</v>
       </c>
       <c r="M12" t="n">
-        <v>1391.780386383125</v>
+        <v>1031.383771182924</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.837183217777</v>
+        <v>1614.440568017576</v>
       </c>
       <c r="O12" t="n">
-        <v>1984.918259174538</v>
+        <v>2072.315396163037</v>
       </c>
       <c r="P12" t="n">
-        <v>2339.724057532152</v>
+        <v>2427.121194520651</v>
       </c>
       <c r="Q12" t="n">
-        <v>2532.730845588684</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.432706959917</v>
+        <v>2490.432706959919</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.864483162829</v>
+        <v>2342.864483162831</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.314569617308</v>
+        <v>2155.31456961731</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.838305892797</v>
+        <v>1936.838305892799</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.442683341131</v>
+        <v>1708.442683341133</v>
       </c>
       <c r="W12" t="n">
-        <v>1467.126814574441</v>
+        <v>1467.126814574443</v>
       </c>
       <c r="X12" t="n">
         <v>1269.209826452237</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>435.1917568916347</v>
+        <v>435.1917568916332</v>
       </c>
       <c r="C13" t="n">
-        <v>366.3900521074471</v>
+        <v>366.3900521074459</v>
       </c>
       <c r="D13" t="n">
-        <v>314.132423689342</v>
+        <v>314.132423689341</v>
       </c>
       <c r="E13" t="n">
-        <v>262.937674204793</v>
+        <v>262.9376742047922</v>
       </c>
       <c r="F13" t="n">
-        <v>211.2712839847022</v>
+        <v>211.2712839847017</v>
       </c>
       <c r="G13" t="n">
-        <v>143.4019141787126</v>
+        <v>143.4019141787122</v>
       </c>
       <c r="H13" t="n">
-        <v>86.94280246160568</v>
+        <v>86.94280246160554</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65461691177369</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="J13" t="n">
-        <v>106.9616471803649</v>
+        <v>106.9616471803651</v>
       </c>
       <c r="K13" t="n">
-        <v>266.2601579695707</v>
+        <v>266.2601579695711</v>
       </c>
       <c r="L13" t="n">
-        <v>500.0804572028434</v>
+        <v>500.080457202844</v>
       </c>
       <c r="M13" t="n">
-        <v>753.1574403668531</v>
+        <v>753.1574403668538</v>
       </c>
       <c r="N13" t="n">
-        <v>1005.800710836335</v>
+        <v>1005.800710836336</v>
       </c>
       <c r="O13" t="n">
-        <v>1235.78193340133</v>
+        <v>1235.781933401332</v>
       </c>
       <c r="P13" t="n">
-        <v>1425.547118998079</v>
+        <v>1425.54711899808</v>
       </c>
       <c r="Q13" t="n">
-        <v>1505.96261588258</v>
+        <v>1505.962615882582</v>
       </c>
       <c r="R13" t="n">
-        <v>1467.871646526104</v>
+        <v>1467.871646526106</v>
       </c>
       <c r="S13" t="n">
-        <v>1432.574063844423</v>
+        <v>1359.090973011909</v>
       </c>
       <c r="T13" t="n">
-        <v>1301.218226449264</v>
+        <v>1301.218226449261</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.855130641879</v>
+        <v>1114.855130641877</v>
       </c>
       <c r="V13" t="n">
-        <v>954.9340909544342</v>
+        <v>954.9340909544317</v>
       </c>
       <c r="W13" t="n">
-        <v>769.5919542259654</v>
+        <v>769.5919542259631</v>
       </c>
       <c r="X13" t="n">
-        <v>639.1537548754734</v>
+        <v>639.1537548754712</v>
       </c>
       <c r="Y13" t="n">
-        <v>517.9328608218823</v>
+        <v>517.9328608218807</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1782.605944492128</v>
+        <v>1559.071922200456</v>
       </c>
       <c r="C14" t="n">
-        <v>1504.568691562278</v>
+        <v>1281.034669270606</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.641232526844</v>
+        <v>1012.107210235171</v>
       </c>
       <c r="E14" t="n">
-        <v>944.7520183702933</v>
+        <v>721.2179960786207</v>
       </c>
       <c r="F14" t="n">
-        <v>634.497333417806</v>
+        <v>410.9633111261332</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8162284300296</v>
+        <v>99.28220613835663</v>
       </c>
       <c r="H14" t="n">
-        <v>99.28220613835661</v>
+        <v>99.28220613835663</v>
       </c>
       <c r="I14" t="n">
         <v>50.65461691177372</v>
       </c>
       <c r="J14" t="n">
-        <v>166.4396087488978</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="K14" t="n">
-        <v>472.2045152269968</v>
+        <v>356.4195233898727</v>
       </c>
       <c r="L14" t="n">
-        <v>901.5029261947534</v>
+        <v>785.7179343576292</v>
       </c>
       <c r="M14" t="n">
-        <v>1385.329783705481</v>
+        <v>1269.544791868357</v>
       </c>
       <c r="N14" t="n">
-        <v>1855.714637201901</v>
+        <v>1739.929645364777</v>
       </c>
       <c r="O14" t="n">
-        <v>2080.242997294786</v>
+        <v>2131.857734655679</v>
       </c>
       <c r="P14" t="n">
         <v>2382.587094066702</v>
@@ -5303,25 +5303,25 @@
         <v>2532.730845588686</v>
       </c>
       <c r="S14" t="n">
-        <v>2532.730845588686</v>
+        <v>2461.393164970431</v>
       </c>
       <c r="T14" t="n">
-        <v>2532.730845588686</v>
+        <v>2461.393164970431</v>
       </c>
       <c r="U14" t="n">
-        <v>2381.784125105678</v>
+        <v>2461.393164970431</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.701356738962</v>
+        <v>2228.310396603715</v>
       </c>
       <c r="W14" t="n">
-        <v>2148.701356738962</v>
+        <v>1969.671972198658</v>
       </c>
       <c r="X14" t="n">
-        <v>2148.701356738962</v>
+        <v>1969.671972198658</v>
       </c>
       <c r="Y14" t="n">
-        <v>1859.056007052142</v>
+        <v>1680.026622511838</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>917.2690573205545</v>
+        <v>917.269057320554</v>
       </c>
       <c r="C15" t="n">
-        <v>755.5653845615093</v>
+        <v>755.5653845615088</v>
       </c>
       <c r="D15" t="n">
-        <v>616.7267475517215</v>
+        <v>616.726747551721</v>
       </c>
       <c r="E15" t="n">
-        <v>469.6987376085926</v>
+        <v>469.6987376085922</v>
       </c>
       <c r="F15" t="n">
-        <v>335.004939558467</v>
+        <v>335.0049395584666</v>
       </c>
       <c r="G15" t="n">
-        <v>206.5580754748707</v>
+        <v>206.5580754748703</v>
       </c>
       <c r="H15" t="n">
-        <v>109.3402278314291</v>
+        <v>109.3402278314288</v>
       </c>
       <c r="I15" t="n">
         <v>50.65461691177372</v>
       </c>
       <c r="J15" t="n">
-        <v>136.9876716469922</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="K15" t="n">
-        <v>411.0512321119749</v>
+        <v>324.7181773767564</v>
       </c>
       <c r="L15" t="n">
-        <v>836.8069870609108</v>
+        <v>750.4739323256924</v>
       </c>
       <c r="M15" t="n">
-        <v>1391.780386383125</v>
+        <v>1305.447331647907</v>
       </c>
       <c r="N15" t="n">
         <v>1527.043431029079</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.6160700091635</v>
+        <v>413.6160700091638</v>
       </c>
       <c r="C16" t="n">
-        <v>347.8966062081861</v>
+        <v>347.8966062081864</v>
       </c>
       <c r="D16" t="n">
-        <v>298.7212187732911</v>
+        <v>298.7212187732915</v>
       </c>
       <c r="E16" t="n">
-        <v>250.6087102719523</v>
+        <v>250.6087102719526</v>
       </c>
       <c r="F16" t="n">
-        <v>202.0245610350717</v>
+        <v>202.0245610350718</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2374322122922</v>
+        <v>137.2374322122923</v>
       </c>
       <c r="H16" t="n">
-        <v>83.86056147839548</v>
+        <v>83.86056147839551</v>
       </c>
       <c r="I16" t="n">
         <v>50.65461691177372</v>
@@ -5443,7 +5443,7 @@
         <v>509.1431703657763</v>
       </c>
       <c r="M16" t="n">
-        <v>765.2410579174302</v>
+        <v>765.2410579174301</v>
       </c>
       <c r="N16" t="n">
         <v>1020.905232774556</v>
@@ -5458,7 +5458,7 @@
         <v>1530.129850983734</v>
       </c>
       <c r="R16" t="n">
-        <v>1495.121122610469</v>
+        <v>1495.121122610468</v>
       </c>
       <c r="S16" t="n">
         <v>1389.422690079481</v>
@@ -5470,16 +5470,16 @@
         <v>1077.868238843357</v>
       </c>
       <c r="V16" t="n">
-        <v>921.0294401391219</v>
+        <v>921.0294401391224</v>
       </c>
       <c r="W16" t="n">
-        <v>738.7695443938634</v>
+        <v>738.7695443938638</v>
       </c>
       <c r="X16" t="n">
-        <v>611.4135860265816</v>
+        <v>611.4135860265819</v>
       </c>
       <c r="Y16" t="n">
-        <v>493.274932956201</v>
+        <v>493.2749329562013</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1256.319644808771</v>
+        <v>1275.947495217233</v>
       </c>
       <c r="C17" t="n">
-        <v>1029.992222088714</v>
+        <v>1049.620072497175</v>
       </c>
       <c r="D17" t="n">
-        <v>812.7745932630726</v>
+        <v>832.4024436715342</v>
       </c>
       <c r="E17" t="n">
-        <v>573.5952093163146</v>
+        <v>593.2230597247762</v>
       </c>
       <c r="F17" t="n">
-        <v>315.0503545736201</v>
+        <v>334.6782049820818</v>
       </c>
       <c r="G17" t="n">
-        <v>222.4788089936539</v>
+        <v>74.70693020409814</v>
       </c>
       <c r="H17" t="n">
         <v>50.65461691177372</v>
@@ -5513,7 +5513,7 @@
         <v>50.65461691177372</v>
       </c>
       <c r="J17" t="n">
-        <v>166.4396087488978</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="K17" t="n">
         <v>304.8047860289793</v>
@@ -5540,25 +5540,25 @@
         <v>2532.730845588686</v>
       </c>
       <c r="S17" t="n">
-        <v>2513.102995180224</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="T17" t="n">
-        <v>2446.654595013455</v>
+        <v>2466.282445421917</v>
       </c>
       <c r="U17" t="n">
-        <v>2347.41770474024</v>
+        <v>2367.045555148702</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.044766583317</v>
+        <v>2185.672616991779</v>
       </c>
       <c r="W17" t="n">
-        <v>1959.116172388053</v>
+        <v>1978.744022796515</v>
       </c>
       <c r="X17" t="n">
-        <v>1732.692367856682</v>
+        <v>1752.320218265143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1494.756848379655</v>
+        <v>1514.384698788117</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>136.9876716469922</v>
       </c>
       <c r="K18" t="n">
-        <v>156.2642679798089</v>
+        <v>411.0512321119749</v>
       </c>
       <c r="L18" t="n">
-        <v>582.020022928745</v>
+        <v>836.8069870609108</v>
       </c>
       <c r="M18" t="n">
-        <v>1136.993422250959</v>
+        <v>943.9866341944268</v>
       </c>
       <c r="N18" t="n">
-        <v>1720.050219085611</v>
+        <v>1527.043431029078</v>
       </c>
       <c r="O18" t="n">
-        <v>2177.925047231072</v>
+        <v>1984.91825917454</v>
       </c>
       <c r="P18" t="n">
-        <v>2532.730845588685</v>
+        <v>2339.724057532153</v>
       </c>
       <c r="Q18" t="n">
         <v>2532.730845588685</v>
@@ -5698,19 +5698,19 @@
         <v>776.391723416338</v>
       </c>
       <c r="S19" t="n">
-        <v>693.2463982418155</v>
+        <v>722.4031210951432</v>
       </c>
       <c r="T19" t="n">
-        <v>616.6826320396592</v>
+        <v>645.8393548929869</v>
       </c>
       <c r="U19" t="n">
-        <v>485.1116074252777</v>
+        <v>514.2683302786054</v>
       </c>
       <c r="V19" t="n">
-        <v>379.9826389308355</v>
+        <v>409.1393617841632</v>
       </c>
       <c r="W19" t="n">
-        <v>249.4325733953699</v>
+        <v>278.5892962486976</v>
       </c>
       <c r="X19" t="n">
         <v>173.7864452378809</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1256.319644808771</v>
+        <v>1423.719374006788</v>
       </c>
       <c r="C20" t="n">
-        <v>1029.992222088714</v>
+        <v>1197.391951286731</v>
       </c>
       <c r="D20" t="n">
-        <v>812.7745932630728</v>
+        <v>980.1743224610898</v>
       </c>
       <c r="E20" t="n">
-        <v>573.5952093163148</v>
+        <v>740.9949385143318</v>
       </c>
       <c r="F20" t="n">
         <v>482.4500837716373</v>
@@ -5750,25 +5750,25 @@
         <v>50.65461691177372</v>
       </c>
       <c r="J20" t="n">
-        <v>166.4396087488978</v>
+        <v>50.65461691177372</v>
       </c>
       <c r="K20" t="n">
-        <v>472.2045152269968</v>
+        <v>356.4195233898727</v>
       </c>
       <c r="L20" t="n">
-        <v>901.5029261947534</v>
+        <v>785.7179343576292</v>
       </c>
       <c r="M20" t="n">
-        <v>1217.930054507464</v>
+        <v>1269.544791868357</v>
       </c>
       <c r="N20" t="n">
-        <v>1688.314908003884</v>
+        <v>1739.929645364777</v>
       </c>
       <c r="O20" t="n">
-        <v>2080.242997294786</v>
+        <v>2131.857734655679</v>
       </c>
       <c r="P20" t="n">
-        <v>2382.587094066702</v>
+        <v>2434.201831427595</v>
       </c>
       <c r="Q20" t="n">
         <v>2532.730845588686</v>
@@ -5777,25 +5777,25 @@
         <v>2532.730845588686</v>
       </c>
       <c r="S20" t="n">
-        <v>2513.102995180224</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="T20" t="n">
-        <v>2446.654595013455</v>
+        <v>2466.282445421917</v>
       </c>
       <c r="U20" t="n">
-        <v>2347.417704740241</v>
+        <v>2367.045555148702</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.044766583318</v>
+        <v>2185.672616991779</v>
       </c>
       <c r="W20" t="n">
-        <v>1959.116172388054</v>
+        <v>1978.744022796515</v>
       </c>
       <c r="X20" t="n">
-        <v>1732.692367856682</v>
+        <v>1752.320218265144</v>
       </c>
       <c r="Y20" t="n">
-        <v>1494.756848379655</v>
+        <v>1662.156577577672</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>1391.780386383125</v>
       </c>
       <c r="N21" t="n">
-        <v>1527.043431029079</v>
+        <v>1974.837183217777</v>
       </c>
       <c r="O21" t="n">
-        <v>1984.91825917454</v>
+        <v>2432.712011363238</v>
       </c>
       <c r="P21" t="n">
-        <v>2339.724057532154</v>
+        <v>2532.730845588686</v>
       </c>
       <c r="Q21" t="n">
         <v>2532.730845588686</v>
@@ -5929,28 +5929,28 @@
         <v>776.391723416338</v>
       </c>
       <c r="Q22" t="n">
-        <v>757.6257158650435</v>
+        <v>776.391723416338</v>
       </c>
       <c r="R22" t="n">
-        <v>757.6257158650435</v>
+        <v>776.391723416338</v>
       </c>
       <c r="S22" t="n">
-        <v>703.6371135438487</v>
+        <v>693.2463982418155</v>
       </c>
       <c r="T22" t="n">
-        <v>627.0733473416924</v>
+        <v>616.6826320396592</v>
       </c>
       <c r="U22" t="n">
-        <v>495.5023227273109</v>
+        <v>485.1116074252777</v>
       </c>
       <c r="V22" t="n">
-        <v>390.3733542328687</v>
+        <v>379.9826389308355</v>
       </c>
       <c r="W22" t="n">
-        <v>259.823288697403</v>
+        <v>249.4325733953699</v>
       </c>
       <c r="X22" t="n">
-        <v>184.177160539914</v>
+        <v>173.7864452378809</v>
       </c>
       <c r="Y22" t="n">
         <v>107.3576223772932</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1427.13569501083</v>
+        <v>1427.135695010829</v>
       </c>
       <c r="C23" t="n">
         <v>1200.808272290772</v>
       </c>
       <c r="D23" t="n">
-        <v>983.5906434651308</v>
+        <v>983.5906434651306</v>
       </c>
       <c r="E23" t="n">
-        <v>744.4112595183728</v>
+        <v>744.4112595183726</v>
       </c>
       <c r="F23" t="n">
-        <v>485.8664047756783</v>
+        <v>485.8664047756782</v>
       </c>
       <c r="G23" t="n">
         <v>225.8951299976951</v>
@@ -6023,10 +6023,10 @@
         <v>2518.233754942299</v>
       </c>
       <c r="V23" t="n">
-        <v>2336.860816785376</v>
+        <v>2336.860816785375</v>
       </c>
       <c r="W23" t="n">
-        <v>2129.932222590112</v>
+        <v>2129.932222590111</v>
       </c>
       <c r="X23" t="n">
         <v>1903.50841805874</v>
@@ -6072,19 +6072,19 @@
         <v>414.467553116016</v>
       </c>
       <c r="L24" t="n">
-        <v>840.2233080649521</v>
+        <v>585.436343932786</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.208753556082</v>
+        <v>1140.409743255</v>
       </c>
       <c r="N24" t="n">
-        <v>1885.265550390733</v>
+        <v>1723.466540089652</v>
       </c>
       <c r="O24" t="n">
-        <v>2343.140378536194</v>
+        <v>2181.341368235113</v>
       </c>
       <c r="P24" t="n">
-        <v>2343.140378536194</v>
+        <v>2536.147166592727</v>
       </c>
       <c r="Q24" t="n">
         <v>2536.147166592727</v>
@@ -6184,7 +6184,7 @@
         <v>412.5556827882045</v>
       </c>
       <c r="W25" t="n">
-        <v>252.848894399411</v>
+        <v>282.0056172527388</v>
       </c>
       <c r="X25" t="n">
         <v>177.202766241922</v>
@@ -6212,7 +6212,7 @@
         <v>961.9993186650061</v>
       </c>
       <c r="F26" t="n">
-        <v>651.7446337125187</v>
+        <v>651.7446337125186</v>
       </c>
       <c r="G26" t="n">
         <v>340.0635287247424</v>
@@ -6221,19 +6221,19 @@
         <v>116.5295064330693</v>
       </c>
       <c r="I26" t="n">
-        <v>67.90191720648639</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="J26" t="n">
-        <v>285.5158743167797</v>
+        <v>205.0297594378351</v>
       </c>
       <c r="K26" t="n">
-        <v>612.6236311891025</v>
+        <v>510.794665915934</v>
       </c>
       <c r="L26" t="n">
-        <v>1143.751007430028</v>
+        <v>1041.92204215686</v>
       </c>
       <c r="M26" t="n">
-        <v>1729.406830213926</v>
+        <v>1627.577864940757</v>
       </c>
       <c r="N26" t="n">
         <v>2199.791683710346</v>
@@ -6254,19 +6254,19 @@
         <v>3323.758179706064</v>
       </c>
       <c r="T26" t="n">
-        <v>3205.599949329503</v>
+        <v>3205.599949329502</v>
       </c>
       <c r="U26" t="n">
-        <v>3054.653228846496</v>
+        <v>3054.653228846494</v>
       </c>
       <c r="V26" t="n">
-        <v>2821.57046047978</v>
+        <v>2916.417687400559</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.932036074723</v>
+        <v>2657.779262995502</v>
       </c>
       <c r="X26" t="n">
-        <v>2284.798401333559</v>
+        <v>2379.645628254338</v>
       </c>
       <c r="Y26" t="n">
         <v>2090.000278567518</v>
@@ -6300,28 +6300,28 @@
         <v>126.5875281261418</v>
       </c>
       <c r="I27" t="n">
-        <v>67.90191720648639</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="J27" t="n">
-        <v>154.2349719417049</v>
+        <v>154.2349719417048</v>
       </c>
       <c r="K27" t="n">
-        <v>154.2349719417049</v>
+        <v>428.2985324066875</v>
       </c>
       <c r="L27" t="n">
-        <v>579.990726890641</v>
+        <v>854.0542873556235</v>
       </c>
       <c r="M27" t="n">
-        <v>1134.964126212855</v>
+        <v>1409.027686677838</v>
       </c>
       <c r="N27" t="n">
-        <v>1718.020923047507</v>
+        <v>1544.290731323791</v>
       </c>
       <c r="O27" t="n">
-        <v>2175.895751192968</v>
+        <v>2002.165559469252</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.701549550583</v>
+        <v>2356.971357826866</v>
       </c>
       <c r="Q27" t="n">
         <v>2549.978145883398</v>
@@ -6370,28 +6370,28 @@
         <v>267.8560105666651</v>
       </c>
       <c r="F28" t="n">
-        <v>219.2718613297846</v>
+        <v>219.2718613297845</v>
       </c>
       <c r="G28" t="n">
-        <v>154.4847325070051</v>
+        <v>154.484732507005</v>
       </c>
       <c r="H28" t="n">
-        <v>101.1078617731082</v>
+        <v>101.1078617731084</v>
       </c>
       <c r="I28" t="n">
-        <v>67.90191720648639</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="J28" t="n">
-        <v>127.2298518627219</v>
+        <v>127.2298518627218</v>
       </c>
       <c r="K28" t="n">
-        <v>289.5492670395721</v>
+        <v>289.549267039572</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3904706604891</v>
+        <v>526.390470660489</v>
       </c>
       <c r="M28" t="n">
-        <v>782.488358212143</v>
+        <v>782.4883582121431</v>
       </c>
       <c r="N28" t="n">
         <v>1038.152533069269</v>
@@ -6400,7 +6400,7 @@
         <v>1271.154660021909</v>
       </c>
       <c r="P28" t="n">
-        <v>1463.940750006302</v>
+        <v>1463.940750006301</v>
       </c>
       <c r="Q28" t="n">
         <v>1547.377151278447</v>
@@ -6412,19 +6412,19 @@
         <v>1406.669990374194</v>
       </c>
       <c r="T28" t="n">
-        <v>1278.396393962244</v>
+        <v>1278.396393962245</v>
       </c>
       <c r="U28" t="n">
         <v>1095.11553913807</v>
       </c>
       <c r="V28" t="n">
-        <v>938.2767404338349</v>
+        <v>938.2767404338351</v>
       </c>
       <c r="W28" t="n">
-        <v>756.0168446885763</v>
+        <v>756.0168446885765</v>
       </c>
       <c r="X28" t="n">
-        <v>628.6608863212944</v>
+        <v>628.6608863212946</v>
       </c>
       <c r="Y28" t="n">
         <v>510.5222332509138</v>
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1705.006017866061</v>
+        <v>1799.853244786841</v>
       </c>
       <c r="C29" t="n">
-        <v>1426.96876493621</v>
+        <v>1521.815991856991</v>
       </c>
       <c r="D29" t="n">
         <v>1252.888532821557</v>
       </c>
       <c r="E29" t="n">
-        <v>961.9993186650061</v>
+        <v>961.9993186650059</v>
       </c>
       <c r="F29" t="n">
-        <v>651.7446337125187</v>
+        <v>651.7446337125186</v>
       </c>
       <c r="G29" t="n">
-        <v>340.0635287247424</v>
+        <v>340.0635287247422</v>
       </c>
       <c r="H29" t="n">
         <v>116.5295064330693</v>
       </c>
       <c r="I29" t="n">
-        <v>67.90191720648639</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="J29" t="n">
         <v>285.5158743167797</v>
       </c>
       <c r="K29" t="n">
-        <v>591.2807807948786</v>
+        <v>693.1097460680478</v>
       </c>
       <c r="L29" t="n">
-        <v>1122.408157035805</v>
+        <v>1224.237122308974</v>
       </c>
       <c r="M29" t="n">
-        <v>1708.063979819702</v>
+        <v>1809.892945092871</v>
       </c>
       <c r="N29" t="n">
-        <v>2280.277798589291</v>
+        <v>2382.10676386246</v>
       </c>
       <c r="O29" t="n">
-        <v>2774.034853153363</v>
+        <v>2875.863818426532</v>
       </c>
       <c r="P29" t="n">
-        <v>3097.721800319503</v>
+        <v>3178.207915198448</v>
       </c>
       <c r="Q29" t="n">
         <v>3349.694517114656</v>
@@ -6491,22 +6491,22 @@
         <v>3323.758179706064</v>
       </c>
       <c r="T29" t="n">
-        <v>3205.599949329503</v>
+        <v>3205.599949329502</v>
       </c>
       <c r="U29" t="n">
-        <v>3054.653228846495</v>
+        <v>3054.653228846494</v>
       </c>
       <c r="V29" t="n">
-        <v>2821.570460479778</v>
+        <v>2821.570460479777</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.932036074722</v>
+        <v>2657.779262995502</v>
       </c>
       <c r="X29" t="n">
-        <v>2284.798401333557</v>
+        <v>2379.645628254338</v>
       </c>
       <c r="Y29" t="n">
-        <v>1995.153051646737</v>
+        <v>2090.000278567518</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>126.5875281261418</v>
       </c>
       <c r="I30" t="n">
-        <v>67.90191720648639</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="J30" t="n">
-        <v>154.2349719417049</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="K30" t="n">
-        <v>428.2985324066876</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="L30" t="n">
-        <v>428.2985324066876</v>
+        <v>493.6576721554224</v>
       </c>
       <c r="M30" t="n">
-        <v>983.2719317289019</v>
+        <v>1048.631071477637</v>
       </c>
       <c r="N30" t="n">
-        <v>1566.328728563554</v>
+        <v>1544.290731323791</v>
       </c>
       <c r="O30" t="n">
         <v>2002.165559469252</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430.8633703038766</v>
+        <v>430.8633703038763</v>
       </c>
       <c r="C31" t="n">
-        <v>365.1439065028992</v>
+        <v>365.1439065028989</v>
       </c>
       <c r="D31" t="n">
-        <v>315.9685190680042</v>
+        <v>315.968519068004</v>
       </c>
       <c r="E31" t="n">
-        <v>267.8560105666654</v>
+        <v>267.8560105666651</v>
       </c>
       <c r="F31" t="n">
-        <v>219.2718613297848</v>
+        <v>219.2718613297846</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4847325070053</v>
+        <v>154.4847325070051</v>
       </c>
       <c r="H31" t="n">
         <v>101.1078617731082</v>
       </c>
       <c r="I31" t="n">
-        <v>67.90191720648639</v>
+        <v>67.90191720648637</v>
       </c>
       <c r="J31" t="n">
-        <v>127.2298518627217</v>
+        <v>127.2298518627218</v>
       </c>
       <c r="K31" t="n">
-        <v>289.5492670395719</v>
+        <v>289.549267039572</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3904706604891</v>
+        <v>526.390470660489</v>
       </c>
       <c r="M31" t="n">
-        <v>782.4883582121431</v>
+        <v>782.4883582121427</v>
       </c>
       <c r="N31" t="n">
         <v>1038.152533069269</v>
@@ -6637,7 +6637,7 @@
         <v>1271.154660021909</v>
       </c>
       <c r="P31" t="n">
-        <v>1463.940750006302</v>
+        <v>1463.940750006301</v>
       </c>
       <c r="Q31" t="n">
         <v>1547.377151278447</v>
@@ -6655,16 +6655,16 @@
         <v>1095.11553913807</v>
       </c>
       <c r="V31" t="n">
-        <v>938.2767404338352</v>
+        <v>938.2767404338348</v>
       </c>
       <c r="W31" t="n">
-        <v>756.0168446885767</v>
+        <v>756.0168446885763</v>
       </c>
       <c r="X31" t="n">
-        <v>628.6608863212948</v>
+        <v>628.6608863212944</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.5222332509141</v>
+        <v>510.5222332509138</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1736.479392200934</v>
+        <v>1736.479392200933</v>
       </c>
       <c r="C32" t="n">
-        <v>1467.381150454409</v>
+        <v>1467.381150454407</v>
       </c>
       <c r="D32" t="n">
-        <v>1207.392702602299</v>
+        <v>1207.392702602298</v>
       </c>
       <c r="E32" t="n">
-        <v>925.4424996290733</v>
+        <v>925.4424996290718</v>
       </c>
       <c r="F32" t="n">
-        <v>624.1268258599107</v>
+        <v>624.1268258599098</v>
       </c>
       <c r="G32" t="n">
-        <v>321.3847320554587</v>
+        <v>321.3847320554582</v>
       </c>
       <c r="H32" t="n">
         <v>106.78972094711</v>
       </c>
       <c r="I32" t="n">
-        <v>67.10114290385188</v>
+        <v>67.10114290385187</v>
       </c>
       <c r="J32" t="n">
-        <v>182.886134740976</v>
+        <v>214.2532604146182</v>
       </c>
       <c r="K32" t="n">
-        <v>599.2411313530208</v>
+        <v>630.608257026663</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.129632454723</v>
+        <v>1170.496758128365</v>
       </c>
       <c r="M32" t="n">
-        <v>1654.323615639094</v>
+        <v>1764.913705773039</v>
       </c>
       <c r="N32" t="n">
-        <v>2124.708469135514</v>
+        <v>2235.298559269459</v>
       </c>
       <c r="O32" t="n">
         <v>2627.226648560362</v>
       </c>
       <c r="P32" t="n">
-        <v>3040.160835466224</v>
+        <v>3040.160835466223</v>
       </c>
       <c r="Q32" t="n">
         <v>3300.894677122154</v>
       </c>
       <c r="R32" t="n">
-        <v>3355.057145192594</v>
+        <v>3355.057145192593</v>
       </c>
       <c r="S32" t="n">
-        <v>3292.658475757665</v>
+        <v>3292.658475757664</v>
       </c>
       <c r="T32" t="n">
-        <v>3183.439256564428</v>
+        <v>3183.439256564427</v>
       </c>
       <c r="U32" t="n">
-        <v>3041.431547264744</v>
+        <v>3041.431547264743</v>
       </c>
       <c r="V32" t="n">
-        <v>2817.287790081353</v>
+        <v>2817.287790081351</v>
       </c>
       <c r="W32" t="n">
-        <v>2567.588376859621</v>
+        <v>2567.588376859619</v>
       </c>
       <c r="X32" t="n">
-        <v>2298.393753301782</v>
+        <v>2298.393753301779</v>
       </c>
       <c r="Y32" t="n">
-        <v>2017.687414798286</v>
+        <v>2017.687414798285</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>223.0046014669488</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7867538235073</v>
+        <v>125.7867538235072</v>
       </c>
       <c r="I33" t="n">
-        <v>67.10114290385188</v>
+        <v>67.10114290385187</v>
       </c>
       <c r="J33" t="n">
-        <v>153.4341976390704</v>
+        <v>153.4341976390703</v>
       </c>
       <c r="K33" t="n">
-        <v>427.4977581040531</v>
+        <v>427.497758104053</v>
       </c>
       <c r="L33" t="n">
         <v>853.2535130529891</v>
       </c>
       <c r="M33" t="n">
-        <v>1408.226912375203</v>
+        <v>960.4331601865048</v>
       </c>
       <c r="N33" t="n">
-        <v>1991.283709209855</v>
+        <v>1543.489957021156</v>
       </c>
       <c r="O33" t="n">
-        <v>2001.364785166617</v>
+        <v>2001.364785166618</v>
       </c>
       <c r="P33" t="n">
         <v>2356.170583524231</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>367.4895177179681</v>
+        <v>367.4895177179678</v>
       </c>
       <c r="C34" t="n">
-        <v>310.7090651003155</v>
+        <v>310.7090651003152</v>
       </c>
       <c r="D34" t="n">
-        <v>270.4726888487453</v>
+        <v>270.4726888487451</v>
       </c>
       <c r="E34" t="n">
-        <v>231.2991915307312</v>
+        <v>231.2991915307311</v>
       </c>
       <c r="F34" t="n">
-        <v>191.6540534771755</v>
+        <v>191.6540534771754</v>
       </c>
       <c r="G34" t="n">
-        <v>135.8059358377208</v>
+        <v>135.8059358377207</v>
       </c>
       <c r="H34" t="n">
-        <v>91.36807628714888</v>
+        <v>91.36807628714885</v>
       </c>
       <c r="I34" t="n">
-        <v>67.10114290385188</v>
+        <v>67.10114290385187</v>
       </c>
       <c r="J34" t="n">
-        <v>135.190202420864</v>
+        <v>67.10114290385187</v>
       </c>
       <c r="K34" t="n">
-        <v>306.2707424584908</v>
+        <v>238.1816829414787</v>
       </c>
       <c r="L34" t="n">
-        <v>441.2829808062386</v>
+        <v>483.7840114231723</v>
       </c>
       <c r="M34" t="n">
-        <v>706.1419932186691</v>
+        <v>748.6430238356029</v>
       </c>
       <c r="N34" t="n">
-        <v>970.5672929365721</v>
+        <v>902.47823341956</v>
       </c>
       <c r="O34" t="n">
-        <v>1109.807457064525</v>
+        <v>1144.241485232976</v>
       </c>
       <c r="P34" t="n">
-        <v>1311.354671909694</v>
+        <v>1311.354671909693</v>
       </c>
       <c r="Q34" t="n">
-        <v>1403.552198042616</v>
+        <v>1403.552198042615</v>
       </c>
       <c r="R34" t="n">
-        <v>1377.482480852675</v>
+        <v>1377.482480852674</v>
       </c>
       <c r="S34" t="n">
         <v>1280.723059505012</v>
       </c>
       <c r="T34" t="n">
-        <v>1161.388474276388</v>
+        <v>1161.388474276387</v>
       </c>
       <c r="U34" t="n">
-        <v>987.0466306355379</v>
+        <v>987.0466306355374</v>
       </c>
       <c r="V34" t="n">
-        <v>839.1468431146276</v>
+        <v>839.1468431146271</v>
       </c>
       <c r="W34" t="n">
-        <v>665.8259585526938</v>
+        <v>665.8259585526934</v>
       </c>
       <c r="X34" t="n">
-        <v>547.4090113687366</v>
+        <v>547.4090113687363</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.2093694816808</v>
+        <v>438.2093694816805</v>
       </c>
     </row>
     <row r="35">
@@ -6917,61 +6917,61 @@
         <v>1200.808272290772</v>
       </c>
       <c r="D35" t="n">
-        <v>983.5906434651308</v>
+        <v>983.5906434651306</v>
       </c>
       <c r="E35" t="n">
-        <v>744.4112595183732</v>
+        <v>744.4112595183726</v>
       </c>
       <c r="F35" t="n">
-        <v>485.8664047756788</v>
+        <v>485.8664047756781</v>
       </c>
       <c r="G35" t="n">
-        <v>225.8951299976949</v>
+        <v>225.8951299976951</v>
       </c>
       <c r="H35" t="n">
-        <v>54.07093791581489</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I35" t="n">
-        <v>54.07093791581489</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J35" t="n">
-        <v>169.8559297529391</v>
+        <v>169.8559297529389</v>
       </c>
       <c r="K35" t="n">
-        <v>475.6208362310382</v>
+        <v>475.6208362310378</v>
       </c>
       <c r="L35" t="n">
-        <v>904.9192471987949</v>
+        <v>904.9192471987944</v>
       </c>
       <c r="M35" t="n">
         <v>1388.746104709523</v>
       </c>
       <c r="N35" t="n">
-        <v>1859.130958205942</v>
+        <v>1859.130958205943</v>
       </c>
       <c r="O35" t="n">
-        <v>2251.059047496844</v>
+        <v>2251.059047496845</v>
       </c>
       <c r="P35" t="n">
         <v>2553.403144268761</v>
       </c>
       <c r="Q35" t="n">
-        <v>2703.546895790745</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="R35" t="n">
-        <v>2703.546895790745</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="S35" t="n">
         <v>2683.919045382283</v>
       </c>
       <c r="T35" t="n">
-        <v>2617.470645215514</v>
+        <v>2617.470645215515</v>
       </c>
       <c r="U35" t="n">
-        <v>2518.233754942298</v>
+        <v>2518.233754942299</v>
       </c>
       <c r="V35" t="n">
-        <v>2336.860816785374</v>
+        <v>2336.860816785375</v>
       </c>
       <c r="W35" t="n">
         <v>2129.932222590111</v>
@@ -7011,7 +7011,7 @@
         <v>112.7565488354703</v>
       </c>
       <c r="I36" t="n">
-        <v>54.07093791581489</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J36" t="n">
         <v>140.4039926510334</v>
@@ -7023,7 +7023,7 @@
         <v>840.2233080649521</v>
       </c>
       <c r="M36" t="n">
-        <v>947.4029551984678</v>
+        <v>1395.196707387166</v>
       </c>
       <c r="N36" t="n">
         <v>1530.459752033119</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.8249106440893</v>
+        <v>111.9816334974171</v>
       </c>
       <c r="C37" t="n">
-        <v>68.81527705290496</v>
+        <v>97.97199990623257</v>
       </c>
       <c r="D37" t="n">
-        <v>68.81527705290496</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="E37" t="n">
-        <v>68.81527705290496</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="F37" t="n">
-        <v>68.81527705290496</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="G37" t="n">
-        <v>55.73797843991854</v>
+        <v>55.73797843991876</v>
       </c>
       <c r="H37" t="n">
-        <v>54.07093791581489</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I37" t="n">
-        <v>54.07093791581489</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J37" t="n">
-        <v>54.07093791581489</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="K37" t="n">
-        <v>114.5613878194959</v>
+        <v>114.5613878194958</v>
       </c>
       <c r="L37" t="n">
-        <v>249.5736261672437</v>
+        <v>249.5736261672436</v>
       </c>
       <c r="M37" t="n">
-        <v>403.8425484457284</v>
+        <v>403.8425484457283</v>
       </c>
       <c r="N37" t="n">
-        <v>557.6777580296856</v>
+        <v>557.6777580296855</v>
       </c>
       <c r="O37" t="n">
-        <v>688.850919709156</v>
+        <v>688.8509197091557</v>
       </c>
       <c r="P37" t="n">
-        <v>779.8080444203795</v>
+        <v>779.8080444203792</v>
       </c>
       <c r="Q37" t="n">
-        <v>779.8080444203795</v>
+        <v>779.8080444203792</v>
       </c>
       <c r="R37" t="n">
-        <v>779.8080444203795</v>
+        <v>779.8080444203792</v>
       </c>
       <c r="S37" t="n">
-        <v>725.8194420991849</v>
+        <v>725.8194420991845</v>
       </c>
       <c r="T37" t="n">
-        <v>649.2556758970287</v>
+        <v>649.2556758970281</v>
       </c>
       <c r="U37" t="n">
-        <v>517.6846512826473</v>
+        <v>517.6846512826465</v>
       </c>
       <c r="V37" t="n">
-        <v>412.5556827882053</v>
+        <v>412.5556827882043</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0056172527398</v>
+        <v>282.0056172527386</v>
       </c>
       <c r="X37" t="n">
-        <v>206.3594890952509</v>
+        <v>206.3594890952495</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.7739433813338</v>
+        <v>139.9306662346618</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1427.135695010827</v>
+        <v>1427.13569501083</v>
       </c>
       <c r="C38" t="n">
-        <v>1200.80827229077</v>
+        <v>1200.808272290772</v>
       </c>
       <c r="D38" t="n">
-        <v>983.5906434651286</v>
+        <v>983.5906434651313</v>
       </c>
       <c r="E38" t="n">
-        <v>744.4112595183708</v>
+        <v>744.4112595183733</v>
       </c>
       <c r="F38" t="n">
-        <v>485.8664047756765</v>
+        <v>485.8664047756788</v>
       </c>
       <c r="G38" t="n">
-        <v>225.8951299976948</v>
+        <v>225.8951299976951</v>
       </c>
       <c r="H38" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I38" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J38" t="n">
-        <v>169.8559297529389</v>
+        <v>169.85592975294</v>
       </c>
       <c r="K38" t="n">
-        <v>475.6208362310379</v>
+        <v>475.6208362310389</v>
       </c>
       <c r="L38" t="n">
-        <v>904.9192471987947</v>
+        <v>904.9192471987956</v>
       </c>
       <c r="M38" t="n">
-        <v>1388.746104709518</v>
+        <v>1388.746104709523</v>
       </c>
       <c r="N38" t="n">
-        <v>1859.130958205938</v>
+        <v>1859.130958205943</v>
       </c>
       <c r="O38" t="n">
-        <v>2251.059047496841</v>
+        <v>2251.059047496846</v>
       </c>
       <c r="P38" t="n">
-        <v>2553.403144268757</v>
+        <v>2553.403144268761</v>
       </c>
       <c r="Q38" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="R38" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="S38" t="n">
-        <v>2683.919045382278</v>
+        <v>2683.919045382283</v>
       </c>
       <c r="T38" t="n">
-        <v>2617.47064521551</v>
+        <v>2617.470645215515</v>
       </c>
       <c r="U38" t="n">
-        <v>2518.233754942295</v>
+        <v>2518.2337549423</v>
       </c>
       <c r="V38" t="n">
-        <v>2336.860816785372</v>
+        <v>2336.860816785376</v>
       </c>
       <c r="W38" t="n">
-        <v>2129.932222590109</v>
+        <v>2129.932222590112</v>
       </c>
       <c r="X38" t="n">
-        <v>1903.508418058737</v>
+        <v>1903.508418058741</v>
       </c>
       <c r="Y38" t="n">
-        <v>1665.572898581711</v>
+        <v>1665.572898581714</v>
       </c>
     </row>
     <row r="39">
@@ -7236,40 +7236,40 @@
         <v>620.1430685557625</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1150586126337</v>
+        <v>473.1150586126338</v>
       </c>
       <c r="F39" t="n">
         <v>338.4212605625081</v>
       </c>
       <c r="G39" t="n">
-        <v>209.9743964789117</v>
+        <v>209.9743964789118</v>
       </c>
       <c r="H39" t="n">
-        <v>112.7565488354702</v>
+        <v>112.7565488354703</v>
       </c>
       <c r="I39" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J39" t="n">
-        <v>118.3659954112708</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="K39" t="n">
-        <v>392.4295558762535</v>
+        <v>328.1344983807976</v>
       </c>
       <c r="L39" t="n">
-        <v>392.4295558762535</v>
+        <v>753.8902533297337</v>
       </c>
       <c r="M39" t="n">
-        <v>947.4029551984678</v>
+        <v>1140.409743255</v>
       </c>
       <c r="N39" t="n">
-        <v>1530.459752033119</v>
+        <v>1723.466540089652</v>
       </c>
       <c r="O39" t="n">
-        <v>1988.334580178581</v>
+        <v>2181.341368235113</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.140378536194</v>
+        <v>2536.147166592727</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.147166592727</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.9816334974187</v>
+        <v>82.82491064408991</v>
       </c>
       <c r="C40" t="n">
-        <v>97.97199990623434</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="D40" t="n">
-        <v>97.97199990623434</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="E40" t="n">
-        <v>97.97199990623434</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="F40" t="n">
-        <v>97.97199990623434</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="G40" t="n">
-        <v>55.73797843991847</v>
+        <v>55.73797843991876</v>
       </c>
       <c r="H40" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I40" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J40" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="K40" t="n">
         <v>114.5613878194958</v>
@@ -7357,25 +7357,25 @@
         <v>779.8080444203792</v>
       </c>
       <c r="S40" t="n">
-        <v>725.8194420991847</v>
+        <v>696.6627192458573</v>
       </c>
       <c r="T40" t="n">
-        <v>649.2556758970285</v>
+        <v>620.0989530437009</v>
       </c>
       <c r="U40" t="n">
-        <v>517.6846512826471</v>
+        <v>488.5279284293193</v>
       </c>
       <c r="V40" t="n">
-        <v>412.5556827882051</v>
+        <v>383.3989599348771</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0056172527396</v>
+        <v>252.8488943994114</v>
       </c>
       <c r="X40" t="n">
-        <v>206.3594890952507</v>
+        <v>177.2027662419223</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.9306662346631</v>
+        <v>110.7739433813346</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1427.135695010827</v>
+        <v>1427.13569501083</v>
       </c>
       <c r="C41" t="n">
-        <v>1200.80827229077</v>
+        <v>1200.808272290772</v>
       </c>
       <c r="D41" t="n">
-        <v>983.5906434651295</v>
+        <v>983.5906434651313</v>
       </c>
       <c r="E41" t="n">
-        <v>744.4112595183717</v>
+        <v>744.4112595183733</v>
       </c>
       <c r="F41" t="n">
-        <v>485.8664047756774</v>
+        <v>485.8664047756788</v>
       </c>
       <c r="G41" t="n">
-        <v>225.8951299976948</v>
+        <v>225.8951299976951</v>
       </c>
       <c r="H41" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I41" t="n">
-        <v>54.07093791581067</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J41" t="n">
-        <v>169.8559297529348</v>
+        <v>169.8559297529391</v>
       </c>
       <c r="K41" t="n">
-        <v>475.6208362310338</v>
+        <v>475.6208362310381</v>
       </c>
       <c r="L41" t="n">
-        <v>904.9192471987905</v>
+        <v>904.9192471987947</v>
       </c>
       <c r="M41" t="n">
-        <v>1388.746104709518</v>
+        <v>1388.746104709523</v>
       </c>
       <c r="N41" t="n">
-        <v>1859.130958205938</v>
+        <v>1859.130958205943</v>
       </c>
       <c r="O41" t="n">
-        <v>2251.059047496841</v>
+        <v>2251.059047496845</v>
       </c>
       <c r="P41" t="n">
-        <v>2553.403144268757</v>
+        <v>2553.403144268761</v>
       </c>
       <c r="Q41" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="R41" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="S41" t="n">
-        <v>2683.919045382279</v>
+        <v>2683.919045382283</v>
       </c>
       <c r="T41" t="n">
-        <v>2617.470645215511</v>
+        <v>2617.470645215515</v>
       </c>
       <c r="U41" t="n">
-        <v>2518.233754942296</v>
+        <v>2518.2337549423</v>
       </c>
       <c r="V41" t="n">
-        <v>2336.860816785373</v>
+        <v>2336.860816785376</v>
       </c>
       <c r="W41" t="n">
-        <v>2129.932222590109</v>
+        <v>2129.932222590112</v>
       </c>
       <c r="X41" t="n">
-        <v>1903.508418058738</v>
+        <v>1903.508418058741</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.572898581711</v>
+        <v>1665.572898581714</v>
       </c>
     </row>
     <row r="42">
@@ -7473,31 +7473,31 @@
         <v>620.1430685557625</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1150586126337</v>
+        <v>473.1150586126338</v>
       </c>
       <c r="F42" t="n">
         <v>338.4212605625081</v>
       </c>
       <c r="G42" t="n">
-        <v>209.9743964789117</v>
+        <v>209.9743964789118</v>
       </c>
       <c r="H42" t="n">
-        <v>112.7565488354702</v>
+        <v>112.7565488354703</v>
       </c>
       <c r="I42" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J42" t="n">
-        <v>118.3659954112708</v>
+        <v>140.4039926510334</v>
       </c>
       <c r="K42" t="n">
-        <v>392.4295558762535</v>
+        <v>414.4675531160161</v>
       </c>
       <c r="L42" t="n">
-        <v>392.4295558762535</v>
+        <v>840.2233080649521</v>
       </c>
       <c r="M42" t="n">
-        <v>947.4029551984678</v>
+        <v>1395.196707387166</v>
       </c>
       <c r="N42" t="n">
         <v>1530.459752033119</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.82491064408906</v>
+        <v>82.82491064408991</v>
       </c>
       <c r="C43" t="n">
-        <v>68.81527705290478</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="D43" t="n">
-        <v>68.81527705290478</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="E43" t="n">
-        <v>68.81527705290478</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="F43" t="n">
-        <v>68.81527705290478</v>
+        <v>68.81527705290537</v>
       </c>
       <c r="G43" t="n">
-        <v>55.73797843991841</v>
+        <v>55.73797843991876</v>
       </c>
       <c r="H43" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I43" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J43" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="K43" t="n">
         <v>114.5613878194958</v>
@@ -7594,25 +7594,25 @@
         <v>779.8080444203792</v>
       </c>
       <c r="S43" t="n">
-        <v>725.8194420991847</v>
+        <v>725.8194420991845</v>
       </c>
       <c r="T43" t="n">
-        <v>649.2556758970286</v>
+        <v>649.2556758970281</v>
       </c>
       <c r="U43" t="n">
-        <v>517.6846512826472</v>
+        <v>517.6846512826465</v>
       </c>
       <c r="V43" t="n">
-        <v>383.3989599348752</v>
+        <v>383.3989599348771</v>
       </c>
       <c r="W43" t="n">
-        <v>252.8488943994097</v>
+        <v>252.8488943994114</v>
       </c>
       <c r="X43" t="n">
-        <v>177.2027662419209</v>
+        <v>177.2027662419223</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.7739433813335</v>
+        <v>110.7739433813346</v>
       </c>
     </row>
     <row r="44">
@@ -7637,52 +7637,52 @@
         <v>492.0308867420985</v>
       </c>
       <c r="G44" t="n">
-        <v>228.977370980905</v>
+        <v>228.9773709809051</v>
       </c>
       <c r="H44" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I44" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J44" t="n">
-        <v>169.8559297529389</v>
+        <v>169.855929752939</v>
       </c>
       <c r="K44" t="n">
-        <v>475.6208362310379</v>
+        <v>475.620836231038</v>
       </c>
       <c r="L44" t="n">
-        <v>904.9192471987907</v>
+        <v>904.9192471987947</v>
       </c>
       <c r="M44" t="n">
-        <v>1388.746104709519</v>
+        <v>1388.746104709523</v>
       </c>
       <c r="N44" t="n">
-        <v>1859.130958205938</v>
+        <v>1859.130958205942</v>
       </c>
       <c r="O44" t="n">
-        <v>2251.059047496841</v>
+        <v>2251.059047496845</v>
       </c>
       <c r="P44" t="n">
-        <v>2553.403144268757</v>
+        <v>2553.403144268761</v>
       </c>
       <c r="Q44" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="R44" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.546895790741</v>
+        <v>2703.546895790746</v>
       </c>
       <c r="T44" t="n">
-        <v>2634.016254640762</v>
+        <v>2634.016254640767</v>
       </c>
       <c r="U44" t="n">
-        <v>2531.697123384338</v>
+        <v>2531.697123384341</v>
       </c>
       <c r="V44" t="n">
-        <v>2367.683226617475</v>
+        <v>2347.241944244207</v>
       </c>
       <c r="W44" t="n">
         <v>2157.672391439001</v>
@@ -7710,25 +7710,25 @@
         <v>620.1430685557625</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1150586126337</v>
+        <v>473.1150586126338</v>
       </c>
       <c r="F45" t="n">
         <v>338.4212605625081</v>
       </c>
       <c r="G45" t="n">
-        <v>209.9743964789117</v>
+        <v>209.9743964789118</v>
       </c>
       <c r="H45" t="n">
-        <v>112.7565488354702</v>
+        <v>112.7565488354703</v>
       </c>
       <c r="I45" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J45" t="n">
-        <v>140.4039926510333</v>
+        <v>140.4039926510334</v>
       </c>
       <c r="K45" t="n">
-        <v>414.467553116016</v>
+        <v>414.4675531160161</v>
       </c>
       <c r="L45" t="n">
         <v>840.2233080649521</v>
@@ -7737,13 +7737,13 @@
         <v>1395.196707387166</v>
       </c>
       <c r="N45" t="n">
-        <v>1723.466540089652</v>
+        <v>1530.459752033119</v>
       </c>
       <c r="O45" t="n">
-        <v>2181.341368235113</v>
+        <v>1988.334580178581</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.147166592727</v>
+        <v>2343.140378536194</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.147166592727</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.11460118321999</v>
+        <v>92.61943180203178</v>
       </c>
       <c r="C46" t="n">
-        <v>75.02272660882551</v>
+        <v>75.5275572276373</v>
       </c>
       <c r="D46" t="n">
-        <v>74.47492840051346</v>
+        <v>74.97975901932526</v>
       </c>
       <c r="E46" t="n">
-        <v>74.97975901932517</v>
+        <v>74.97975901932526</v>
       </c>
       <c r="F46" t="n">
-        <v>74.97975901932517</v>
+        <v>74.97975901932526</v>
       </c>
       <c r="G46" t="n">
-        <v>58.82021942312862</v>
+        <v>58.82021942312871</v>
       </c>
       <c r="H46" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="I46" t="n">
-        <v>54.07093791581482</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="J46" t="n">
-        <v>58.86183346729755</v>
+        <v>54.07093791581491</v>
       </c>
       <c r="K46" t="n">
-        <v>119.3522833709785</v>
+        <v>114.5613878194958</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3645217187263</v>
+        <v>249.5736261672436</v>
       </c>
       <c r="M46" t="n">
-        <v>408.633443997211</v>
+        <v>403.8425484457283</v>
       </c>
       <c r="N46" t="n">
-        <v>562.4686535811682</v>
+        <v>557.6777580296855</v>
       </c>
       <c r="O46" t="n">
-        <v>693.6418152606384</v>
+        <v>688.8509197091557</v>
       </c>
       <c r="P46" t="n">
-        <v>784.5989399718619</v>
+        <v>779.8080444203792</v>
       </c>
       <c r="Q46" t="n">
-        <v>784.5989399718619</v>
+        <v>779.8080444203792</v>
       </c>
       <c r="R46" t="n">
-        <v>784.5989399718619</v>
+        <v>785.1037705906738</v>
       </c>
       <c r="S46" t="n">
-        <v>727.5280966674571</v>
+        <v>728.032927286269</v>
       </c>
       <c r="T46" t="n">
-        <v>647.8820894820908</v>
+        <v>648.3869201009027</v>
       </c>
       <c r="U46" t="n">
-        <v>513.2288238844992</v>
+        <v>513.7336545033111</v>
       </c>
       <c r="V46" t="n">
-        <v>405.017614406847</v>
+        <v>405.5224450256588</v>
       </c>
       <c r="W46" t="n">
-        <v>271.3853078881713</v>
+        <v>271.8901385069831</v>
       </c>
       <c r="X46" t="n">
-        <v>192.6569387474723</v>
+        <v>193.1617693662841</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.1458749036746</v>
+        <v>123.6507055224864</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.165459480069</v>
       </c>
       <c r="M8" t="n">
-        <v>197.1659932800904</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
         <v>197.8864878340879</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.2286203399446</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>121.601416483621</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>122.1806808881021</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -8614,10 +8614,10 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
         <v>113.7541836609333</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>249.2476850693723</v>
+        <v>400.9080401420853</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>124.3491327851647</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>76.71324014938153</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>66.97292885879389</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>59.7040936570213</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>184.8205377045868</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>102.8710625144797</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8939,10 +8939,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>325.9496000880159</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>366.2022222785907</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>76.71324014938153</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>170.8281652438945</v>
+        <v>258.0332710370444</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>102.8710625144797</v>
       </c>
       <c r="K17" t="n">
-        <v>252.2984007889612</v>
+        <v>369.2529379981775</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9243,13 +9243,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>86.44423828588155</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>153.0996614722744</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.14412248434901</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>102.8710625144797</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>415.2769579871292</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>223.8733895135393</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>170.8281652438945</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>156.6410294014476</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>78.14412248434901</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9720,10 +9720,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>224.7318790640262</v>
       </c>
       <c r="M24" t="n">
-        <v>511.4893567829954</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9732,10 +9732,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>55.61190392119727</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>78.14412248434901</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>66.97292885879384</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>170.8281652438941</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.61543191143548</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,22 +10188,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.71324014938153</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>66.97292885879389</v>
       </c>
       <c r="L30" t="n">
-        <v>52.03613076425847</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>534.8651502946021</v>
       </c>
       <c r="O30" t="n">
-        <v>489.7604117872604</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10434,13 +10434,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>153.0996614722742</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>59.7040936570217</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>153.0996614722742</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>170.8281652438939</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236969</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406779</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,16 +10899,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>141.6577426700441</v>
+        <v>76.71324014938153</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>52.03613076425847</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>435.2611188376791</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>78.14412248434901</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>141.6577426700441</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>52.03613076425847</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>170.8281652438939</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11300,7 +11300,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155816</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578768</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>365.7845168161484</v>
+        <v>170.8281652438939</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.144122484349</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.48556077277664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>269.2896030184576</v>
       </c>
       <c r="E11" t="n">
-        <v>291.0317405883634</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>310.2035566763406</v>
+        <v>214.1401495394832</v>
       </c>
       <c r="G11" t="n">
-        <v>311.6157125112767</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>233.803359256427</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>259.1034587343839</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.74825992419144</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>72.74825992418656</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>211.5600015084564</v>
+        <v>167.5004101346013</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.2986820687563</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.62430381207241</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>116.9766480727959</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.4372532781781</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.0520401610061</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>275.3522983937527</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>165.7257319060371</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>146.2941600016602</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>19.43157190437744</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>165.7257319060368</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>19.43157190437744</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>146.2941600016599</v>
       </c>
     </row>
     <row r="21">
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>93.89875465157357</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.89875465157138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>93.89875465157286</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>93.89875465157334</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.48299047775527</v>
+        <v>22.48299047775534</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>20.23686954953806</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>20.23686954953479</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874664.657966028</v>
+        <v>874664.6579660285</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880323.4775815619</v>
+        <v>880323.4775815618</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>944248.7680098761</v>
+        <v>944248.768009876</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>944248.7680098761</v>
+        <v>944248.768009876</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>962810.9897891043</v>
+        <v>962810.9897891044</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959240.4638880234</v>
+        <v>959240.4638880236</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>536113.642055113</v>
       </c>
       <c r="C2" t="n">
-        <v>536113.642055113</v>
+        <v>536113.6420551131</v>
       </c>
       <c r="D2" t="n">
-        <v>537229.1206586827</v>
+        <v>537229.1206586828</v>
       </c>
       <c r="E2" t="n">
-        <v>481713.1978682234</v>
+        <v>481713.1978682247</v>
       </c>
       <c r="F2" t="n">
-        <v>485485.7442785806</v>
+        <v>485485.7442785811</v>
       </c>
       <c r="G2" t="n">
+        <v>528102.6045641233</v>
+      </c>
+      <c r="H2" t="n">
         <v>528102.604564123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>528102.6045641231</v>
       </c>
       <c r="I2" t="n">
         <v>537336.8423459275</v>
       </c>
       <c r="J2" t="n">
-        <v>532104.803736742</v>
+        <v>532104.8037367418</v>
       </c>
       <c r="K2" t="n">
-        <v>532104.8037367418</v>
+        <v>532104.8037367421</v>
       </c>
       <c r="L2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="M2" t="n">
         <v>537336.8423459276</v>
       </c>
       <c r="N2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="O2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="P2" t="n">
-        <v>534956.4917452077</v>
+        <v>534956.4917452079</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>370053.0752586802</v>
+        <v>370053.0752586805</v>
       </c>
       <c r="F3" t="n">
-        <v>2441.1348587026</v>
+        <v>2441.134858702276</v>
       </c>
       <c r="G3" t="n">
-        <v>40954.18552615597</v>
+        <v>40954.18552615598</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>11355.89372144541</v>
       </c>
       <c r="J3" t="n">
-        <v>84125.62147822231</v>
+        <v>84125.62147822246</v>
       </c>
       <c r="K3" t="n">
-        <v>2441.13485870248</v>
+        <v>2441.134858702276</v>
       </c>
       <c r="L3" t="n">
-        <v>48033.88238334921</v>
+        <v>48033.88238334923</v>
       </c>
       <c r="M3" t="n">
-        <v>148581.9610405772</v>
+        <v>148581.9610405773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38890.71215911671</v>
+        <v>38890.71215911683</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>396776.6118112199</v>
       </c>
       <c r="E4" t="n">
-        <v>256026.0704680553</v>
+        <v>256026.0704680555</v>
       </c>
       <c r="F4" t="n">
         <v>259109.6684587712</v>
@@ -26439,7 +26439,7 @@
         <v>298354.7721435779</v>
       </c>
       <c r="J4" t="n">
-        <v>295024.2794338482</v>
+        <v>295024.2794338483</v>
       </c>
       <c r="K4" t="n">
         <v>295024.2794338483</v>
@@ -26448,16 +26448,16 @@
         <v>299205.2378613055</v>
       </c>
       <c r="M4" t="n">
+        <v>298354.7721435778</v>
+      </c>
+      <c r="N4" t="n">
         <v>298354.7721435779</v>
       </c>
-      <c r="N4" t="n">
-        <v>298354.7721435778</v>
-      </c>
       <c r="O4" t="n">
-        <v>298354.7721435778</v>
+        <v>298354.7721435779</v>
       </c>
       <c r="P4" t="n">
-        <v>296415.5289732778</v>
+        <v>296415.5289732779</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49713.97016917497</v>
+        <v>49713.97016917502</v>
       </c>
       <c r="F5" t="n">
-        <v>49970.49987722033</v>
+        <v>49970.49987722032</v>
       </c>
       <c r="G5" t="n">
         <v>54274.22165596833</v>
@@ -26491,25 +26491,25 @@
         <v>56870.62561903962</v>
       </c>
       <c r="J5" t="n">
-        <v>63078.44810120195</v>
+        <v>63078.44810120194</v>
       </c>
       <c r="K5" t="n">
-        <v>63078.44810120195</v>
+        <v>63078.44810120194</v>
       </c>
       <c r="L5" t="n">
         <v>63213.83842505894</v>
       </c>
       <c r="M5" t="n">
-        <v>56870.62561903963</v>
+        <v>56870.62561903962</v>
       </c>
       <c r="N5" t="n">
-        <v>56870.62561903958</v>
+        <v>56870.62561903962</v>
       </c>
       <c r="O5" t="n">
-        <v>56870.62561903958</v>
+        <v>56870.62561903962</v>
       </c>
       <c r="P5" t="n">
-        <v>56614.09591099426</v>
+        <v>56614.09591099432</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105415.8846513969</v>
+        <v>105411.5160789297</v>
       </c>
       <c r="C6" t="n">
-        <v>105415.8846513969</v>
+        <v>105411.5160789298</v>
       </c>
       <c r="D6" t="n">
-        <v>103107.0138571185</v>
+        <v>103106.6291368071</v>
       </c>
       <c r="E6" t="n">
-        <v>-194079.918027687</v>
+        <v>-194278.5739008209</v>
       </c>
       <c r="F6" t="n">
-        <v>173964.4410838865</v>
+        <v>173779.2585907896</v>
       </c>
       <c r="G6" t="n">
-        <v>139250.4797668279</v>
+        <v>139217.5003461789</v>
       </c>
       <c r="H6" t="n">
-        <v>180204.665292984</v>
+        <v>180171.6858723346</v>
       </c>
       <c r="I6" t="n">
-        <v>170755.5508618645</v>
+        <v>170755.5508618646</v>
       </c>
       <c r="J6" t="n">
-        <v>89876.45472346952</v>
+        <v>89857.76887129346</v>
       </c>
       <c r="K6" t="n">
-        <v>171560.9413429891</v>
+        <v>171542.2554908139</v>
       </c>
       <c r="L6" t="n">
-        <v>126883.8836762138</v>
+        <v>126883.883676214</v>
       </c>
       <c r="M6" t="n">
-        <v>33529.48354273279</v>
+        <v>33529.48354273291</v>
       </c>
       <c r="N6" t="n">
-        <v>182111.4445833098</v>
+        <v>182111.44458331</v>
       </c>
       <c r="O6" t="n">
         <v>143220.7324241932</v>
       </c>
       <c r="P6" t="n">
-        <v>181926.8668609356</v>
+        <v>181918.3656087903</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="F2" t="n">
         <v>102.8575406799689</v>
@@ -26713,16 +26713,16 @@
         <v>102.8575406799689</v>
       </c>
       <c r="L2" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="M2" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="N2" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="O2" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="P2" t="n">
         <v>150.998854014286</v>
@@ -26759,25 +26759,25 @@
         <v>129.6266255434857</v>
       </c>
       <c r="J3" t="n">
-        <v>129.6266255434859</v>
+        <v>129.6266255434857</v>
       </c>
       <c r="K3" t="n">
-        <v>129.6266255434858</v>
+        <v>129.6266255434857</v>
       </c>
       <c r="L3" t="n">
-        <v>129.6266255434858</v>
+        <v>129.6266255434857</v>
       </c>
       <c r="M3" t="n">
-        <v>129.6266255434858</v>
+        <v>129.6266255434857</v>
       </c>
       <c r="N3" t="n">
-        <v>129.6266255434858</v>
+        <v>129.6266255434857</v>
       </c>
       <c r="O3" t="n">
-        <v>129.6266255434858</v>
+        <v>129.6266255434857</v>
       </c>
       <c r="P3" t="n">
-        <v>129.6266255434858</v>
+        <v>129.6266255434857</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>633.182711397171</v>
+        <v>633.1827113971715</v>
       </c>
       <c r="F4" t="n">
         <v>633.1827113971715</v>
@@ -26811,25 +26811,25 @@
         <v>675.8867239476862</v>
       </c>
       <c r="J4" t="n">
-        <v>848.7739650810798</v>
+        <v>848.7739650810797</v>
       </c>
       <c r="K4" t="n">
-        <v>848.7739650810798</v>
+        <v>848.7739650810797</v>
       </c>
       <c r="L4" t="n">
-        <v>838.7642862981485</v>
+        <v>838.7642862981484</v>
       </c>
       <c r="M4" t="n">
-        <v>675.8867239476862</v>
+        <v>675.8867239476864</v>
       </c>
       <c r="N4" t="n">
-        <v>675.8867239476853</v>
+        <v>675.8867239476864</v>
       </c>
       <c r="O4" t="n">
-        <v>675.8867239476853</v>
+        <v>675.8867239476864</v>
       </c>
       <c r="P4" t="n">
-        <v>675.8867239476853</v>
+        <v>675.8867239476864</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="F2" t="n">
-        <v>3.051418573378086</v>
+        <v>3.051418573377845</v>
       </c>
       <c r="G2" t="n">
-        <v>51.19273190769496</v>
+        <v>51.19273190769498</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>48.61339019889583</v>
+        <v>48.61339019889603</v>
       </c>
       <c r="K2" t="n">
-        <v>3.051418573378101</v>
+        <v>3.051418573377845</v>
       </c>
       <c r="L2" t="n">
-        <v>60.0423529791865</v>
+        <v>60.04235297918653</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34311083620358</v>
+        <v>42.34311083620335</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>48.61339019889589</v>
+        <v>48.61339019889603</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>623.1730326142397</v>
+        <v>623.1730326142401</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>42.70401255051468</v>
       </c>
       <c r="J4" t="n">
-        <v>172.8872411333937</v>
+        <v>172.8872411333936</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>460.2954702637774</v>
+        <v>460.2954702637782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="K2" t="n">
-        <v>3.051418573378086</v>
+        <v>3.051418573377845</v>
       </c>
       <c r="L2" t="n">
-        <v>51.19273190769496</v>
+        <v>51.19273190769498</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>48.61339019889583</v>
+        <v>48.61339019889603</v>
       </c>
       <c r="P2" t="n">
-        <v>3.051418573378101</v>
+        <v>3.051418573377845</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>623.1730326142397</v>
+        <v>623.1730326142401</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>161.0793480203606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>80.91537856709924</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,7 +27910,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>324.7929562910121</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.8155695705169</v>
+        <v>149.0087232814423</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -27938,19 +27938,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>136.7412047716915</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>123.337181286693</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>57.68878367390825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27998,7 +27998,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>180.5864343039856</v>
       </c>
     </row>
     <row r="10">
@@ -28062,19 +28062,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
         <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
-        <v>248.1182726142302</v>
+        <v>249.3114263251557</v>
       </c>
       <c r="W10" t="n">
-        <v>273.2851586848435</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1234143915721</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="C11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="D11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="E11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="F11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="G11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="H11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="I11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>56.99759804394544</v>
       </c>
       <c r="S11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="T11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="U11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="V11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="W11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="X11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
     </row>
     <row r="12">
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="C13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="D13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="E13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="F13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="G13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="H13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="I13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="J13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="K13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="L13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="M13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="N13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="O13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="P13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="R13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="S13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="T13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="U13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="V13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="W13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="X13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.80612210659082</v>
+        <v>99.80612210659103</v>
       </c>
     </row>
     <row r="14">
@@ -28770,7 +28770,7 @@
         <v>137.5161817695019</v>
       </c>
       <c r="S19" t="n">
-        <v>125.1851169628694</v>
+        <v>154.0502725876639</v>
       </c>
       <c r="T19" t="n">
         <v>154.0502725876639</v>
@@ -28785,7 +28785,7 @@
         <v>154.0502725876639</v>
       </c>
       <c r="X19" t="n">
-        <v>154.0502725876639</v>
+        <v>125.1851169628694</v>
       </c>
       <c r="Y19" t="n">
         <v>154.0502725876639</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S21" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>18.57834747578151</v>
       </c>
       <c r="R22" t="n">
         <v>137.5161817695019</v>
       </c>
       <c r="S22" t="n">
-        <v>154.0502725876639</v>
+        <v>125.1851169628694</v>
       </c>
       <c r="T22" t="n">
         <v>154.0502725876639</v>
@@ -29025,7 +29025,7 @@
         <v>154.0502725876639</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.7634644386511</v>
+        <v>154.0502725876639</v>
       </c>
     </row>
     <row r="23">
@@ -29256,10 +29256,10 @@
         <v>154.0502725876639</v>
       </c>
       <c r="W25" t="n">
-        <v>125.1851169628694</v>
+        <v>154.0502725876639</v>
       </c>
       <c r="X25" t="n">
-        <v>154.0502725876639</v>
+        <v>125.1851169628693</v>
       </c>
       <c r="Y25" t="n">
         <v>154.0502725876639</v>
@@ -29296,10 +29296,10 @@
         <v>102.8575406799689</v>
       </c>
       <c r="J26" t="n">
-        <v>102.8575406799689</v>
+        <v>21.55843474164112</v>
       </c>
       <c r="K26" t="n">
-        <v>21.55843474164016</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>102.8575406799689</v>
@@ -29308,7 +29308,7 @@
         <v>102.8575406799689</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>102.8575406799689</v>
       </c>
       <c r="O26" t="n">
         <v>102.8575406799689</v>
@@ -29536,7 +29536,7 @@
         <v>102.8575406799689</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>102.8575406799689</v>
       </c>
       <c r="L29" t="n">
         <v>102.8575406799689</v>
@@ -29551,10 +29551,10 @@
         <v>102.8575406799689</v>
       </c>
       <c r="P29" t="n">
-        <v>21.55843474164033</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.8575406799689</v>
+        <v>21.55843474164035</v>
       </c>
       <c r="R29" t="n">
         <v>102.8575406799689</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="C32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="D32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="E32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="F32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="G32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="H32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="I32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>31.68396532691135</v>
       </c>
       <c r="K32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="L32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="M32" t="n">
-        <v>31.68396532691173</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>111.7071617514604</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="Q32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="R32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="S32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="T32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="U32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="V32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="W32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="X32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="Y32" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="C34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="D34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="E34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="F34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="G34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="H34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="I34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="J34" t="n">
-        <v>111.7071617514604</v>
+        <v>42.9303339564987</v>
       </c>
       <c r="K34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="M34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="N34" t="n">
-        <v>111.7071617514604</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>8.148487321699236</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="P34" t="n">
-        <v>111.7071617514604</v>
+        <v>76.92531511666019</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="R34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="S34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="T34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="U34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="V34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="X34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7071617514604</v>
+        <v>111.7071617514605</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="C35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="D35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="E35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="F35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="G35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="H35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="I35" t="n">
         <v>150.998854014286</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.99759804394542</v>
+        <v>56.99759804394544</v>
       </c>
       <c r="S35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="T35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="U35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="V35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="W35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="X35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="Y35" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
     </row>
     <row r="36">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="C37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>122.676018615721</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="H37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="I37" t="n">
         <v>135.7314258009245</v>
       </c>
       <c r="J37" t="n">
-        <v>42.93033395649869</v>
+        <v>42.9303339564987</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.5783474757815</v>
+        <v>18.57834747578151</v>
       </c>
       <c r="R37" t="n">
         <v>137.5161817695019</v>
       </c>
       <c r="S37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="T37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="U37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="V37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="W37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="X37" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.1851169628677</v>
+        <v>154.0502725876638</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="C38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="D38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="E38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="F38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="G38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="H38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="I38" t="n">
         <v>150.998854014286</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.99759804394542</v>
+        <v>56.99759804394544</v>
       </c>
       <c r="S38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="T38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="U38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="V38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="W38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="X38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="C40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>125.1851169628679</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="H40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="I40" t="n">
         <v>135.7314258009245</v>
       </c>
       <c r="J40" t="n">
-        <v>42.93033395649869</v>
+        <v>42.9303339564987</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.5783474757815</v>
+        <v>18.57834747578151</v>
       </c>
       <c r="R40" t="n">
         <v>137.5161817695019</v>
       </c>
       <c r="S40" t="n">
-        <v>154.050272587664</v>
+        <v>125.1851169628699</v>
       </c>
       <c r="T40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="U40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="V40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="W40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="X40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.050272587664</v>
+        <v>154.0502725876638</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="C41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="D41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="E41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="F41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="G41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="H41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="I41" t="n">
-        <v>150.9988540142818</v>
+        <v>150.998854014286</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.99759804394542</v>
+        <v>56.99759804394544</v>
       </c>
       <c r="S41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="T41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="U41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="V41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="W41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="X41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="C43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="H43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="I43" t="n">
         <v>135.7314258009245</v>
       </c>
       <c r="J43" t="n">
-        <v>42.93033395649869</v>
+        <v>42.9303339564987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.5783474757815</v>
+        <v>18.57834747578151</v>
       </c>
       <c r="R43" t="n">
         <v>137.5161817695019</v>
       </c>
       <c r="S43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="T43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="U43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="V43" t="n">
-        <v>125.1851169628673</v>
+        <v>125.1851169628699</v>
       </c>
       <c r="W43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="X43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.0502725876641</v>
+        <v>154.0502725876638</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.99759804394542</v>
+        <v>56.99759804394544</v>
       </c>
       <c r="S44" t="n">
         <v>150.998854014286</v>
@@ -30861,7 +30861,7 @@
         <v>150.998854014286</v>
       </c>
       <c r="E46" t="n">
-        <v>150.998854014286</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30876,7 +30876,7 @@
         <v>135.7314258009245</v>
       </c>
       <c r="J46" t="n">
-        <v>47.76962239233983</v>
+        <v>42.9303339564987</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.5783474757815</v>
+        <v>18.57834747578151</v>
       </c>
       <c r="R46" t="n">
-        <v>137.5161817695019</v>
+        <v>142.8654001233348</v>
       </c>
       <c r="S46" t="n">
         <v>150.998854014286</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5211120624863751</v>
+        <v>0.5211120624863742</v>
       </c>
       <c r="H26" t="n">
-        <v>5.33683890993859</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I26" t="n">
-        <v>20.090172789006</v>
+        <v>20.09017278900596</v>
       </c>
       <c r="J26" t="n">
-        <v>44.22873491345302</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K26" t="n">
-        <v>66.28740851850129</v>
+        <v>66.28740851850118</v>
       </c>
       <c r="L26" t="n">
-        <v>82.23539180081872</v>
+        <v>82.23539180081858</v>
       </c>
       <c r="M26" t="n">
-        <v>91.50271844206078</v>
+        <v>91.50271844206063</v>
       </c>
       <c r="N26" t="n">
-        <v>92.98332808960021</v>
+        <v>92.98332808960005</v>
       </c>
       <c r="O26" t="n">
-        <v>87.80152001825131</v>
+        <v>87.80152001825115</v>
       </c>
       <c r="P26" t="n">
-        <v>74.9365659756189</v>
+        <v>74.93656597561878</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.27424023782558</v>
+        <v>56.27424023782548</v>
       </c>
       <c r="R26" t="n">
-        <v>32.73430559515979</v>
+        <v>32.73430559515973</v>
       </c>
       <c r="S26" t="n">
-        <v>11.87484112390829</v>
+        <v>11.87484112390826</v>
       </c>
       <c r="T26" t="n">
-        <v>2.281168053534108</v>
+        <v>2.281168053534104</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04168896499891001</v>
+        <v>0.04168896499890993</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2788195341878754</v>
+        <v>0.2788195341878749</v>
       </c>
       <c r="H27" t="n">
-        <v>2.692809711761849</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I27" t="n">
-        <v>9.599707646380798</v>
+        <v>9.59970764638078</v>
       </c>
       <c r="J27" t="n">
-        <v>26.3423315172852</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K27" t="n">
-        <v>45.02324030787284</v>
+        <v>45.02324030787276</v>
       </c>
       <c r="L27" t="n">
-        <v>60.53930280688935</v>
+        <v>60.53930280688924</v>
       </c>
       <c r="M27" t="n">
-        <v>70.64651092119982</v>
+        <v>70.64651092119969</v>
       </c>
       <c r="N27" t="n">
-        <v>72.51631385002992</v>
+        <v>72.51631385002979</v>
       </c>
       <c r="O27" t="n">
-        <v>66.33825996091963</v>
+        <v>66.33825996091952</v>
       </c>
       <c r="P27" t="n">
-        <v>53.24230210294613</v>
+        <v>53.24230210294604</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.59106896054353</v>
+        <v>35.59106896054347</v>
       </c>
       <c r="R27" t="n">
-        <v>17.31126897352441</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S27" t="n">
-        <v>5.178950558270401</v>
+        <v>5.178950558270392</v>
       </c>
       <c r="T27" t="n">
-        <v>1.123838385608146</v>
+        <v>1.123838385608144</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01834339040709707</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2337529313079254</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H28" t="n">
-        <v>2.078276061992284</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I28" t="n">
-        <v>7.029588152423795</v>
+        <v>7.029588152423782</v>
       </c>
       <c r="J28" t="n">
-        <v>16.52633224347032</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K28" t="n">
-        <v>27.15784056468442</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L28" t="n">
-        <v>34.75268580554375</v>
+        <v>34.75268580554369</v>
       </c>
       <c r="M28" t="n">
-        <v>36.64183449584143</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N28" t="n">
-        <v>35.77057357005737</v>
+        <v>35.77057357005731</v>
       </c>
       <c r="O28" t="n">
-        <v>33.03991432705114</v>
+        <v>33.03991432705108</v>
       </c>
       <c r="P28" t="n">
-        <v>28.27135452836944</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.57362045706637</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R28" t="n">
-        <v>10.51038180226363</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S28" t="n">
-        <v>4.073676084702662</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9987625246793174</v>
+        <v>0.9987625246793156</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01275015988952322</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5211120624863748</v>
+        <v>0.5211120624863743</v>
       </c>
       <c r="H29" t="n">
-        <v>5.336838909938587</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I29" t="n">
-        <v>20.09017278900598</v>
+        <v>20.09017278900597</v>
       </c>
       <c r="J29" t="n">
-        <v>44.228734913453</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K29" t="n">
-        <v>66.28740851850125</v>
+        <v>66.28740851850119</v>
       </c>
       <c r="L29" t="n">
-        <v>82.23539180081866</v>
+        <v>82.23539180081859</v>
       </c>
       <c r="M29" t="n">
-        <v>91.50271844206073</v>
+        <v>91.50271844206064</v>
       </c>
       <c r="N29" t="n">
-        <v>92.98332808960015</v>
+        <v>92.98332808960006</v>
       </c>
       <c r="O29" t="n">
-        <v>87.80152001825125</v>
+        <v>87.80152001825117</v>
       </c>
       <c r="P29" t="n">
-        <v>74.93656597561886</v>
+        <v>74.93656597561879</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.27424023782554</v>
+        <v>56.2742402378255</v>
       </c>
       <c r="R29" t="n">
-        <v>32.73430559515977</v>
+        <v>32.73430559515974</v>
       </c>
       <c r="S29" t="n">
-        <v>11.87484112390828</v>
+        <v>11.87484112390827</v>
       </c>
       <c r="T29" t="n">
-        <v>2.281168053534107</v>
+        <v>2.281168053534105</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04168896499890998</v>
+        <v>0.04168896499890994</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2788195341878752</v>
+        <v>0.278819534187875</v>
       </c>
       <c r="H30" t="n">
-        <v>2.692809711761848</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I30" t="n">
-        <v>9.599707646380791</v>
+        <v>9.599707646380784</v>
       </c>
       <c r="J30" t="n">
-        <v>26.34233151728518</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K30" t="n">
-        <v>45.02324030787281</v>
+        <v>45.02324030787278</v>
       </c>
       <c r="L30" t="n">
-        <v>60.53930280688931</v>
+        <v>60.53930280688925</v>
       </c>
       <c r="M30" t="n">
-        <v>70.64651092119976</v>
+        <v>70.64651092119971</v>
       </c>
       <c r="N30" t="n">
-        <v>72.51631385002987</v>
+        <v>72.51631385002982</v>
       </c>
       <c r="O30" t="n">
-        <v>66.33825996091959</v>
+        <v>66.33825996091953</v>
       </c>
       <c r="P30" t="n">
-        <v>53.2423021029461</v>
+        <v>53.24230210294606</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.59106896054351</v>
+        <v>35.59106896054348</v>
       </c>
       <c r="R30" t="n">
-        <v>17.3112689735244</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S30" t="n">
-        <v>5.178950558270397</v>
+        <v>5.178950558270393</v>
       </c>
       <c r="T30" t="n">
-        <v>1.123838385608146</v>
+        <v>1.123838385608145</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01834339040709706</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2337529313079252</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H31" t="n">
-        <v>2.078276061992282</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I31" t="n">
-        <v>7.02958815242379</v>
+        <v>7.029588152423784</v>
       </c>
       <c r="J31" t="n">
-        <v>16.52633224347031</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K31" t="n">
-        <v>27.1578405646844</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L31" t="n">
-        <v>34.75268580554373</v>
+        <v>34.7526858055437</v>
       </c>
       <c r="M31" t="n">
-        <v>36.6418344958414</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N31" t="n">
-        <v>35.77057357005735</v>
+        <v>35.77057357005732</v>
       </c>
       <c r="O31" t="n">
-        <v>33.03991432705112</v>
+        <v>33.03991432705109</v>
       </c>
       <c r="P31" t="n">
-        <v>28.27135452836942</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.57362045706636</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R31" t="n">
-        <v>10.51038180226362</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S31" t="n">
-        <v>4.073676084702659</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9987625246793167</v>
+        <v>0.9987625246793158</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01275015988952321</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5211120624863748</v>
+        <v>0.5211120624863743</v>
       </c>
       <c r="H32" t="n">
-        <v>5.336838909938587</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I32" t="n">
-        <v>20.09017278900598</v>
+        <v>20.09017278900597</v>
       </c>
       <c r="J32" t="n">
-        <v>44.228734913453</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K32" t="n">
-        <v>66.28740851850125</v>
+        <v>66.28740851850119</v>
       </c>
       <c r="L32" t="n">
-        <v>82.23539180081866</v>
+        <v>82.23539180081859</v>
       </c>
       <c r="M32" t="n">
-        <v>91.50271844206073</v>
+        <v>91.50271844206064</v>
       </c>
       <c r="N32" t="n">
-        <v>92.98332808960015</v>
+        <v>92.98332808960006</v>
       </c>
       <c r="O32" t="n">
-        <v>87.80152001825125</v>
+        <v>87.80152001825117</v>
       </c>
       <c r="P32" t="n">
-        <v>74.93656597561886</v>
+        <v>74.93656597561879</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.27424023782554</v>
+        <v>56.2742402378255</v>
       </c>
       <c r="R32" t="n">
-        <v>32.73430559515977</v>
+        <v>32.73430559515974</v>
       </c>
       <c r="S32" t="n">
-        <v>11.87484112390828</v>
+        <v>11.87484112390827</v>
       </c>
       <c r="T32" t="n">
-        <v>2.281168053534107</v>
+        <v>2.281168053534105</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04168896499890998</v>
+        <v>0.04168896499890994</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2788195341878752</v>
+        <v>0.278819534187875</v>
       </c>
       <c r="H33" t="n">
-        <v>2.692809711761848</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I33" t="n">
-        <v>9.599707646380791</v>
+        <v>9.599707646380784</v>
       </c>
       <c r="J33" t="n">
-        <v>26.34233151728518</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K33" t="n">
-        <v>45.02324030787281</v>
+        <v>45.02324030787278</v>
       </c>
       <c r="L33" t="n">
-        <v>60.53930280688931</v>
+        <v>60.53930280688925</v>
       </c>
       <c r="M33" t="n">
-        <v>70.64651092119976</v>
+        <v>70.64651092119971</v>
       </c>
       <c r="N33" t="n">
-        <v>72.51631385002987</v>
+        <v>72.51631385002982</v>
       </c>
       <c r="O33" t="n">
-        <v>66.33825996091959</v>
+        <v>66.33825996091953</v>
       </c>
       <c r="P33" t="n">
-        <v>53.2423021029461</v>
+        <v>53.24230210294606</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.59106896054351</v>
+        <v>35.59106896054348</v>
       </c>
       <c r="R33" t="n">
-        <v>17.3112689735244</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S33" t="n">
-        <v>5.178950558270397</v>
+        <v>5.178950558270393</v>
       </c>
       <c r="T33" t="n">
-        <v>1.123838385608146</v>
+        <v>1.123838385608145</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01834339040709706</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2337529313079252</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H34" t="n">
-        <v>2.078276061992282</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I34" t="n">
-        <v>7.02958815242379</v>
+        <v>7.029588152423784</v>
       </c>
       <c r="J34" t="n">
-        <v>16.52633224347031</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K34" t="n">
-        <v>27.1578405646844</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L34" t="n">
-        <v>34.75268580554373</v>
+        <v>34.7526858055437</v>
       </c>
       <c r="M34" t="n">
-        <v>36.6418344958414</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N34" t="n">
-        <v>35.77057357005735</v>
+        <v>35.77057357005732</v>
       </c>
       <c r="O34" t="n">
-        <v>33.03991432705112</v>
+        <v>33.03991432705109</v>
       </c>
       <c r="P34" t="n">
-        <v>28.27135452836942</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.57362045706636</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R34" t="n">
-        <v>10.51038180226362</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S34" t="n">
-        <v>4.073676084702659</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9987625246793167</v>
+        <v>0.9987625246793158</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01275015988952321</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5211120624863748</v>
+        <v>0.5211120624863743</v>
       </c>
       <c r="H35" t="n">
-        <v>5.336838909938587</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I35" t="n">
-        <v>20.09017278900598</v>
+        <v>20.09017278900597</v>
       </c>
       <c r="J35" t="n">
-        <v>44.228734913453</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K35" t="n">
-        <v>66.28740851850125</v>
+        <v>66.28740851850119</v>
       </c>
       <c r="L35" t="n">
-        <v>82.23539180081866</v>
+        <v>82.23539180081859</v>
       </c>
       <c r="M35" t="n">
-        <v>91.50271844206073</v>
+        <v>91.50271844206064</v>
       </c>
       <c r="N35" t="n">
-        <v>92.98332808960015</v>
+        <v>92.98332808960006</v>
       </c>
       <c r="O35" t="n">
-        <v>87.80152001825125</v>
+        <v>87.80152001825117</v>
       </c>
       <c r="P35" t="n">
-        <v>74.93656597561886</v>
+        <v>74.93656597561879</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.27424023782554</v>
+        <v>56.2742402378255</v>
       </c>
       <c r="R35" t="n">
-        <v>32.73430559515977</v>
+        <v>32.73430559515974</v>
       </c>
       <c r="S35" t="n">
-        <v>11.87484112390828</v>
+        <v>11.87484112390827</v>
       </c>
       <c r="T35" t="n">
-        <v>2.281168053534107</v>
+        <v>2.281168053534105</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04168896499890998</v>
+        <v>0.04168896499890994</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2788195341878752</v>
+        <v>0.278819534187875</v>
       </c>
       <c r="H36" t="n">
-        <v>2.692809711761848</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I36" t="n">
-        <v>9.599707646380791</v>
+        <v>9.599707646380784</v>
       </c>
       <c r="J36" t="n">
-        <v>26.34233151728518</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K36" t="n">
-        <v>45.02324030787281</v>
+        <v>45.02324030787278</v>
       </c>
       <c r="L36" t="n">
-        <v>60.53930280688931</v>
+        <v>60.53930280688925</v>
       </c>
       <c r="M36" t="n">
-        <v>70.64651092119976</v>
+        <v>70.64651092119971</v>
       </c>
       <c r="N36" t="n">
-        <v>72.51631385002987</v>
+        <v>72.51631385002982</v>
       </c>
       <c r="O36" t="n">
-        <v>66.33825996091959</v>
+        <v>66.33825996091953</v>
       </c>
       <c r="P36" t="n">
-        <v>53.2423021029461</v>
+        <v>53.24230210294606</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.59106896054351</v>
+        <v>35.59106896054348</v>
       </c>
       <c r="R36" t="n">
-        <v>17.3112689735244</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S36" t="n">
-        <v>5.178950558270397</v>
+        <v>5.178950558270393</v>
       </c>
       <c r="T36" t="n">
-        <v>1.123838385608146</v>
+        <v>1.123838385608145</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01834339040709706</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2337529313079252</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H37" t="n">
-        <v>2.078276061992282</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I37" t="n">
-        <v>7.02958815242379</v>
+        <v>7.029588152423784</v>
       </c>
       <c r="J37" t="n">
-        <v>16.52633224347031</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K37" t="n">
-        <v>27.1578405646844</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L37" t="n">
-        <v>34.75268580554373</v>
+        <v>34.7526858055437</v>
       </c>
       <c r="M37" t="n">
-        <v>36.6418344958414</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N37" t="n">
-        <v>35.77057357005735</v>
+        <v>35.77057357005732</v>
       </c>
       <c r="O37" t="n">
-        <v>33.03991432705112</v>
+        <v>33.03991432705109</v>
       </c>
       <c r="P37" t="n">
-        <v>28.27135452836942</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.57362045706636</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R37" t="n">
-        <v>10.51038180226362</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S37" t="n">
-        <v>4.073676084702659</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9987625246793167</v>
+        <v>0.9987625246793158</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01275015988952321</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5211120624863748</v>
+        <v>0.5211120624863743</v>
       </c>
       <c r="H38" t="n">
-        <v>5.336838909938587</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I38" t="n">
-        <v>20.09017278900598</v>
+        <v>20.09017278900597</v>
       </c>
       <c r="J38" t="n">
-        <v>44.228734913453</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K38" t="n">
-        <v>66.28740851850125</v>
+        <v>66.28740851850119</v>
       </c>
       <c r="L38" t="n">
-        <v>82.23539180081866</v>
+        <v>82.23539180081859</v>
       </c>
       <c r="M38" t="n">
-        <v>91.50271844206073</v>
+        <v>91.50271844206064</v>
       </c>
       <c r="N38" t="n">
-        <v>92.98332808960015</v>
+        <v>92.98332808960006</v>
       </c>
       <c r="O38" t="n">
-        <v>87.80152001825125</v>
+        <v>87.80152001825117</v>
       </c>
       <c r="P38" t="n">
-        <v>74.93656597561886</v>
+        <v>74.93656597561879</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.27424023782554</v>
+        <v>56.2742402378255</v>
       </c>
       <c r="R38" t="n">
-        <v>32.73430559515977</v>
+        <v>32.73430559515974</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87484112390828</v>
+        <v>11.87484112390827</v>
       </c>
       <c r="T38" t="n">
-        <v>2.281168053534107</v>
+        <v>2.281168053534105</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04168896499890998</v>
+        <v>0.04168896499890994</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2788195341878752</v>
+        <v>0.278819534187875</v>
       </c>
       <c r="H39" t="n">
-        <v>2.692809711761848</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I39" t="n">
-        <v>9.599707646380791</v>
+        <v>9.599707646380784</v>
       </c>
       <c r="J39" t="n">
-        <v>26.34233151728518</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K39" t="n">
-        <v>45.02324030787281</v>
+        <v>45.02324030787278</v>
       </c>
       <c r="L39" t="n">
-        <v>60.53930280688931</v>
+        <v>60.53930280688925</v>
       </c>
       <c r="M39" t="n">
-        <v>70.64651092119976</v>
+        <v>70.64651092119971</v>
       </c>
       <c r="N39" t="n">
-        <v>72.51631385002987</v>
+        <v>72.51631385002982</v>
       </c>
       <c r="O39" t="n">
-        <v>66.33825996091959</v>
+        <v>66.33825996091953</v>
       </c>
       <c r="P39" t="n">
-        <v>53.2423021029461</v>
+        <v>53.24230210294606</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.59106896054351</v>
+        <v>35.59106896054348</v>
       </c>
       <c r="R39" t="n">
-        <v>17.3112689735244</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S39" t="n">
-        <v>5.178950558270397</v>
+        <v>5.178950558270393</v>
       </c>
       <c r="T39" t="n">
-        <v>1.123838385608146</v>
+        <v>1.123838385608145</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01834339040709706</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2337529313079252</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H40" t="n">
-        <v>2.078276061992282</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I40" t="n">
-        <v>7.02958815242379</v>
+        <v>7.029588152423784</v>
       </c>
       <c r="J40" t="n">
-        <v>16.52633224347031</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K40" t="n">
-        <v>27.1578405646844</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L40" t="n">
-        <v>34.75268580554373</v>
+        <v>34.7526858055437</v>
       </c>
       <c r="M40" t="n">
-        <v>36.6418344958414</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N40" t="n">
-        <v>35.77057357005735</v>
+        <v>35.77057357005732</v>
       </c>
       <c r="O40" t="n">
-        <v>33.03991432705112</v>
+        <v>33.03991432705109</v>
       </c>
       <c r="P40" t="n">
-        <v>28.27135452836942</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.57362045706636</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R40" t="n">
-        <v>10.51038180226362</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S40" t="n">
-        <v>4.073676084702659</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9987625246793167</v>
+        <v>0.9987625246793158</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01275015988952321</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5211120624863748</v>
+        <v>0.5211120624863743</v>
       </c>
       <c r="H41" t="n">
-        <v>5.336838909938587</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I41" t="n">
-        <v>20.09017278900598</v>
+        <v>20.09017278900597</v>
       </c>
       <c r="J41" t="n">
-        <v>44.228734913453</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K41" t="n">
-        <v>66.28740851850125</v>
+        <v>66.28740851850119</v>
       </c>
       <c r="L41" t="n">
-        <v>82.23539180081866</v>
+        <v>82.23539180081859</v>
       </c>
       <c r="M41" t="n">
-        <v>91.50271844206073</v>
+        <v>91.50271844206064</v>
       </c>
       <c r="N41" t="n">
-        <v>92.98332808960015</v>
+        <v>92.98332808960006</v>
       </c>
       <c r="O41" t="n">
-        <v>87.80152001825125</v>
+        <v>87.80152001825117</v>
       </c>
       <c r="P41" t="n">
-        <v>74.93656597561886</v>
+        <v>74.93656597561879</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.27424023782554</v>
+        <v>56.2742402378255</v>
       </c>
       <c r="R41" t="n">
-        <v>32.73430559515977</v>
+        <v>32.73430559515974</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87484112390828</v>
+        <v>11.87484112390827</v>
       </c>
       <c r="T41" t="n">
-        <v>2.281168053534107</v>
+        <v>2.281168053534105</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04168896499890998</v>
+        <v>0.04168896499890994</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2788195341878752</v>
+        <v>0.278819534187875</v>
       </c>
       <c r="H42" t="n">
-        <v>2.692809711761848</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I42" t="n">
-        <v>9.599707646380791</v>
+        <v>9.599707646380784</v>
       </c>
       <c r="J42" t="n">
-        <v>26.34233151728518</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K42" t="n">
-        <v>45.02324030787281</v>
+        <v>45.02324030787278</v>
       </c>
       <c r="L42" t="n">
-        <v>60.53930280688931</v>
+        <v>60.53930280688925</v>
       </c>
       <c r="M42" t="n">
-        <v>70.64651092119976</v>
+        <v>70.64651092119971</v>
       </c>
       <c r="N42" t="n">
-        <v>72.51631385002987</v>
+        <v>72.51631385002982</v>
       </c>
       <c r="O42" t="n">
-        <v>66.33825996091959</v>
+        <v>66.33825996091953</v>
       </c>
       <c r="P42" t="n">
-        <v>53.2423021029461</v>
+        <v>53.24230210294606</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.59106896054351</v>
+        <v>35.59106896054348</v>
       </c>
       <c r="R42" t="n">
-        <v>17.3112689735244</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S42" t="n">
-        <v>5.178950558270397</v>
+        <v>5.178950558270393</v>
       </c>
       <c r="T42" t="n">
-        <v>1.123838385608146</v>
+        <v>1.123838385608145</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01834339040709706</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2337529313079252</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H43" t="n">
-        <v>2.078276061992282</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I43" t="n">
-        <v>7.02958815242379</v>
+        <v>7.029588152423784</v>
       </c>
       <c r="J43" t="n">
-        <v>16.52633224347031</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K43" t="n">
-        <v>27.1578405646844</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L43" t="n">
-        <v>34.75268580554373</v>
+        <v>34.7526858055437</v>
       </c>
       <c r="M43" t="n">
-        <v>36.6418344958414</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N43" t="n">
-        <v>35.77057357005735</v>
+        <v>35.77057357005732</v>
       </c>
       <c r="O43" t="n">
-        <v>33.03991432705112</v>
+        <v>33.03991432705109</v>
       </c>
       <c r="P43" t="n">
-        <v>28.27135452836942</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.57362045706636</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R43" t="n">
-        <v>10.51038180226362</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S43" t="n">
-        <v>4.073676084702659</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9987625246793167</v>
+        <v>0.9987625246793158</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01275015988952321</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5211120624863746</v>
+        <v>0.5211120624863743</v>
       </c>
       <c r="H44" t="n">
-        <v>5.336838909938586</v>
+        <v>5.336838909938582</v>
       </c>
       <c r="I44" t="n">
-        <v>20.09017278900598</v>
+        <v>20.09017278900597</v>
       </c>
       <c r="J44" t="n">
-        <v>44.22873491345298</v>
+        <v>44.22873491345295</v>
       </c>
       <c r="K44" t="n">
-        <v>66.28740851850124</v>
+        <v>66.28740851850119</v>
       </c>
       <c r="L44" t="n">
-        <v>82.23539180081865</v>
+        <v>82.23539180081859</v>
       </c>
       <c r="M44" t="n">
-        <v>91.50271844206071</v>
+        <v>91.50271844206064</v>
       </c>
       <c r="N44" t="n">
-        <v>92.98332808960012</v>
+        <v>92.98332808960006</v>
       </c>
       <c r="O44" t="n">
-        <v>87.80152001825122</v>
+        <v>87.80152001825117</v>
       </c>
       <c r="P44" t="n">
-        <v>74.93656597561885</v>
+        <v>74.93656597561879</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.27424023782553</v>
+        <v>56.2742402378255</v>
       </c>
       <c r="R44" t="n">
-        <v>32.73430559515976</v>
+        <v>32.73430559515974</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87484112390828</v>
+        <v>11.87484112390827</v>
       </c>
       <c r="T44" t="n">
-        <v>2.281168053534107</v>
+        <v>2.281168053534105</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04168896499890996</v>
+        <v>0.04168896499890994</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2788195341878751</v>
+        <v>0.278819534187875</v>
       </c>
       <c r="H45" t="n">
-        <v>2.692809711761847</v>
+        <v>2.692809711761845</v>
       </c>
       <c r="I45" t="n">
-        <v>9.599707646380789</v>
+        <v>9.599707646380784</v>
       </c>
       <c r="J45" t="n">
-        <v>26.34233151728517</v>
+        <v>26.34233151728515</v>
       </c>
       <c r="K45" t="n">
-        <v>45.0232403078728</v>
+        <v>45.02324030787278</v>
       </c>
       <c r="L45" t="n">
-        <v>60.5393028068893</v>
+        <v>60.53930280688925</v>
       </c>
       <c r="M45" t="n">
-        <v>70.64651092119975</v>
+        <v>70.64651092119971</v>
       </c>
       <c r="N45" t="n">
-        <v>72.51631385002986</v>
+        <v>72.51631385002982</v>
       </c>
       <c r="O45" t="n">
-        <v>66.33825996091957</v>
+        <v>66.33825996091953</v>
       </c>
       <c r="P45" t="n">
-        <v>53.24230210294609</v>
+        <v>53.24230210294606</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.5910689605435</v>
+        <v>35.59106896054348</v>
       </c>
       <c r="R45" t="n">
-        <v>17.3112689735244</v>
+        <v>17.31126897352438</v>
       </c>
       <c r="S45" t="n">
-        <v>5.178950558270397</v>
+        <v>5.178950558270393</v>
       </c>
       <c r="T45" t="n">
         <v>1.123838385608145</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01834339040709706</v>
+        <v>0.01834339040709704</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2337529313079252</v>
+        <v>0.233752931307925</v>
       </c>
       <c r="H46" t="n">
-        <v>2.078276061992282</v>
+        <v>2.07827606199228</v>
       </c>
       <c r="I46" t="n">
-        <v>7.029588152423789</v>
+        <v>7.029588152423784</v>
       </c>
       <c r="J46" t="n">
-        <v>16.52633224347031</v>
+        <v>16.5263322434703</v>
       </c>
       <c r="K46" t="n">
-        <v>27.15784056468439</v>
+        <v>27.15784056468437</v>
       </c>
       <c r="L46" t="n">
-        <v>34.75268580554372</v>
+        <v>34.7526858055437</v>
       </c>
       <c r="M46" t="n">
-        <v>36.64183449584139</v>
+        <v>36.64183449584137</v>
       </c>
       <c r="N46" t="n">
-        <v>35.77057357005734</v>
+        <v>35.77057357005732</v>
       </c>
       <c r="O46" t="n">
-        <v>33.03991432705111</v>
+        <v>33.03991432705109</v>
       </c>
       <c r="P46" t="n">
-        <v>28.27135452836941</v>
+        <v>28.27135452836939</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.57362045706635</v>
+        <v>19.57362045706634</v>
       </c>
       <c r="R46" t="n">
-        <v>10.51038180226362</v>
+        <v>10.51038180226361</v>
       </c>
       <c r="S46" t="n">
-        <v>4.073676084702658</v>
+        <v>4.073676084702655</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9987625246793165</v>
+        <v>0.9987625246793158</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01275015988952321</v>
+        <v>0.0127501598895232</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>9.605247316954339</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>9.605247316954339</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>10.00967878293136</v>
@@ -35425,10 +35425,10 @@
         <v>395.8869588796996</v>
       </c>
       <c r="P11" t="n">
-        <v>136.3074419938346</v>
+        <v>287.9677970665476</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.6603550727114</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.20510579314995</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8318792575583</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>430.0563181302384</v>
@@ -35501,13 +35501,13 @@
         <v>588.9462594289411</v>
       </c>
       <c r="O12" t="n">
-        <v>10.18290500682972</v>
+        <v>462.4998264095568</v>
       </c>
       <c r="P12" t="n">
         <v>358.389695310721</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.9563515722548</v>
+        <v>106.6764152202378</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.87578815009212</v>
+        <v>56.87578815009233</v>
       </c>
       <c r="K13" t="n">
-        <v>160.9075866557635</v>
+        <v>160.9075866557637</v>
       </c>
       <c r="L13" t="n">
-        <v>236.1821204376492</v>
+        <v>236.1821204376494</v>
       </c>
       <c r="M13" t="n">
-        <v>255.6333163272824</v>
+        <v>255.6333163272826</v>
       </c>
       <c r="N13" t="n">
-        <v>255.1952226964465</v>
+        <v>255.1952226964467</v>
       </c>
       <c r="O13" t="n">
-        <v>232.3042652171668</v>
+        <v>232.3042652171671</v>
       </c>
       <c r="P13" t="n">
-        <v>191.6820056532812</v>
+        <v>191.6820056532814</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.22777463080931</v>
+        <v>81.22777463080952</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9545372092162</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>308.8534408869687</v>
@@ -35659,10 +35659,10 @@
         <v>475.1362156529493</v>
       </c>
       <c r="O14" t="n">
-        <v>226.7963233261466</v>
+        <v>395.8869588796996</v>
       </c>
       <c r="P14" t="n">
-        <v>305.3980775473897</v>
+        <v>253.261979203053</v>
       </c>
       <c r="Q14" t="n">
         <v>151.6603550727114</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20510579314995</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>276.8318792575583</v>
@@ -35735,7 +35735,7 @@
         <v>560.5791912345597</v>
       </c>
       <c r="N15" t="n">
-        <v>136.629338026216</v>
+        <v>223.8344438193659</v>
       </c>
       <c r="O15" t="n">
         <v>462.4998264095568</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.92720672347021</v>
+        <v>59.92720672347019</v>
       </c>
       <c r="K16" t="n">
         <v>163.9590052291416</v>
       </c>
       <c r="L16" t="n">
-        <v>239.2335390110273</v>
+        <v>239.2335390110272</v>
       </c>
       <c r="M16" t="n">
         <v>258.6847349006605</v>
@@ -35823,7 +35823,7 @@
         <v>194.7334242266593</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.27919320418739</v>
+        <v>84.27919320418738</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9545372092162</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>139.7628053334157</v>
+        <v>256.7173425426319</v>
       </c>
       <c r="L17" t="n">
         <v>433.6347585532895</v>
@@ -35963,13 +35963,13 @@
         <v>87.20510579314995</v>
       </c>
       <c r="K18" t="n">
-        <v>19.47130942708766</v>
+        <v>276.8318792575583</v>
       </c>
       <c r="L18" t="n">
         <v>430.0563181302384</v>
       </c>
       <c r="M18" t="n">
-        <v>560.5791912345597</v>
+        <v>108.2622698318343</v>
       </c>
       <c r="N18" t="n">
         <v>588.9462594289411</v>
@@ -35981,7 +35981,7 @@
         <v>358.389695310721</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>194.9563515722548</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9545372092162</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>308.8534408869687</v>
@@ -36127,7 +36127,7 @@
         <v>433.6347585532895</v>
       </c>
       <c r="M20" t="n">
-        <v>319.6233619320308</v>
+        <v>488.7139974855838</v>
       </c>
       <c r="N20" t="n">
         <v>475.1362156529493</v>
@@ -36139,7 +36139,7 @@
         <v>305.3980775473897</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.6603550727114</v>
+        <v>99.52425672837454</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>560.5791912345597</v>
       </c>
       <c r="N21" t="n">
-        <v>136.629338026216</v>
+        <v>588.9462594289411</v>
       </c>
       <c r="O21" t="n">
         <v>462.4998264095568</v>
       </c>
       <c r="P21" t="n">
-        <v>358.389695310721</v>
+        <v>101.0291254802503</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.9563515722548</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>276.8318792575583</v>
       </c>
       <c r="L24" t="n">
-        <v>430.0563181302384</v>
+        <v>172.6957482997677</v>
       </c>
       <c r="M24" t="n">
-        <v>466.6519651425552</v>
+        <v>560.5791912345597</v>
       </c>
       <c r="N24" t="n">
         <v>588.9462594289411</v>
@@ -36452,10 +36452,10 @@
         <v>462.4998264095568</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.9563515722548</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8120778891852</v>
+        <v>138.5129719508573</v>
       </c>
       <c r="K26" t="n">
-        <v>330.4118756286089</v>
+        <v>308.8534408869686</v>
       </c>
       <c r="L26" t="n">
-        <v>536.4922992332586</v>
+        <v>536.4922992332583</v>
       </c>
       <c r="M26" t="n">
-        <v>591.5715381655529</v>
+        <v>591.5715381655526</v>
       </c>
       <c r="N26" t="n">
-        <v>475.1362156529494</v>
+        <v>577.9937563329181</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7444995596687</v>
+        <v>498.7444995596684</v>
       </c>
       <c r="P26" t="n">
-        <v>408.2556182273587</v>
+        <v>408.2556182273586</v>
       </c>
       <c r="Q26" t="n">
-        <v>254.5178957526803</v>
+        <v>254.5178957526802</v>
       </c>
       <c r="R26" t="n">
-        <v>45.85994263602348</v>
+        <v>45.85994263602341</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.20510579314998</v>
+        <v>87.20510579314994</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>276.8318792575583</v>
       </c>
       <c r="L27" t="n">
-        <v>430.0563181302385</v>
+        <v>430.0563181302384</v>
       </c>
       <c r="M27" t="n">
-        <v>560.5791912345599</v>
+        <v>560.5791912345597</v>
       </c>
       <c r="N27" t="n">
-        <v>588.9462594289412</v>
+        <v>136.6293380262156</v>
       </c>
       <c r="O27" t="n">
-        <v>462.4998264095569</v>
+        <v>462.4998264095568</v>
       </c>
       <c r="P27" t="n">
-        <v>358.3896953107212</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.47130942708651</v>
+        <v>194.9563515722548</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.92720672347021</v>
+        <v>59.92720672347016</v>
       </c>
       <c r="K28" t="n">
-        <v>163.9590052291416</v>
+        <v>163.9590052291415</v>
       </c>
       <c r="L28" t="n">
-        <v>239.2335390110273</v>
+        <v>239.2335390110272</v>
       </c>
       <c r="M28" t="n">
-        <v>258.6847349006605</v>
+        <v>258.6847349006604</v>
       </c>
       <c r="N28" t="n">
-        <v>258.2466412698246</v>
+        <v>258.2466412698245</v>
       </c>
       <c r="O28" t="n">
-        <v>235.355683790545</v>
+        <v>235.3556837905448</v>
       </c>
       <c r="P28" t="n">
         <v>194.7334242266593</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.27919320418739</v>
+        <v>84.27919320418735</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>219.8120778891852</v>
       </c>
       <c r="K29" t="n">
-        <v>308.8534408869687</v>
+        <v>411.7109815669375</v>
       </c>
       <c r="L29" t="n">
-        <v>536.4922992332586</v>
+        <v>536.4922992332584</v>
       </c>
       <c r="M29" t="n">
-        <v>591.5715381655529</v>
+        <v>591.5715381655527</v>
       </c>
       <c r="N29" t="n">
-        <v>577.9937563329183</v>
+        <v>577.9937563329182</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7444995596686</v>
+        <v>498.7444995596685</v>
       </c>
       <c r="P29" t="n">
-        <v>326.9565122890301</v>
+        <v>305.3980775473897</v>
       </c>
       <c r="Q29" t="n">
-        <v>254.5178957526803</v>
+        <v>173.2187898143517</v>
       </c>
       <c r="R29" t="n">
-        <v>45.85994263602348</v>
+        <v>45.85994263602346</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.20510579314997</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>276.8318792575583</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>430.0563181302384</v>
       </c>
       <c r="M30" t="n">
-        <v>560.5791912345599</v>
+        <v>560.5791912345597</v>
       </c>
       <c r="N30" t="n">
-        <v>588.9462594289411</v>
+        <v>500.6663230769237</v>
       </c>
       <c r="O30" t="n">
-        <v>440.2392231370689</v>
+        <v>462.4998264095568</v>
       </c>
       <c r="P30" t="n">
-        <v>358.3896953107211</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q30" t="n">
         <v>194.9563515722548</v>
@@ -37002,7 +37002,7 @@
         <v>258.2466412698246</v>
       </c>
       <c r="O31" t="n">
-        <v>235.355683790545</v>
+        <v>235.3556837905449</v>
       </c>
       <c r="P31" t="n">
         <v>194.7334242266593</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9545372092163</v>
+        <v>148.6385025361276</v>
       </c>
       <c r="K32" t="n">
         <v>420.5606026384291</v>
       </c>
       <c r="L32" t="n">
-        <v>545.34192030475</v>
+        <v>545.3419203047499</v>
       </c>
       <c r="M32" t="n">
-        <v>520.3979628124956</v>
+        <v>600.4211592370443</v>
       </c>
       <c r="N32" t="n">
-        <v>475.1362156529494</v>
+        <v>475.1362156529493</v>
       </c>
       <c r="O32" t="n">
-        <v>507.5941206311601</v>
+        <v>395.8869588796996</v>
       </c>
       <c r="P32" t="n">
         <v>417.1052392988502</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.20510579314997</v>
+        <v>87.20510579314995</v>
       </c>
       <c r="K33" t="n">
         <v>276.8318792575583</v>
@@ -37154,16 +37154,16 @@
         <v>430.0563181302384</v>
       </c>
       <c r="M33" t="n">
-        <v>560.5791912345599</v>
+        <v>108.262269831834</v>
       </c>
       <c r="N33" t="n">
         <v>588.9462594289411</v>
       </c>
       <c r="O33" t="n">
-        <v>10.18290500683018</v>
+        <v>462.4998264095568</v>
       </c>
       <c r="P33" t="n">
-        <v>358.3896953107211</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q33" t="n">
         <v>194.9563515722548</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.77682779496175</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>172.8086263006331</v>
       </c>
       <c r="L34" t="n">
-        <v>136.3759983310584</v>
+        <v>248.0831600825188</v>
       </c>
       <c r="M34" t="n">
         <v>267.5343559721521</v>
       </c>
       <c r="N34" t="n">
-        <v>267.0962623413162</v>
+        <v>155.3891005898557</v>
       </c>
       <c r="O34" t="n">
-        <v>140.6466304322753</v>
+        <v>244.2053048620365</v>
       </c>
       <c r="P34" t="n">
-        <v>203.5830452981508</v>
+        <v>168.8011986633506</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.12881427567893</v>
+        <v>93.12881427567895</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9545372092163</v>
+        <v>116.9545372092162</v>
       </c>
       <c r="K35" t="n">
         <v>308.8534408869687</v>
       </c>
       <c r="L35" t="n">
-        <v>433.6347585532896</v>
+        <v>433.6347585532895</v>
       </c>
       <c r="M35" t="n">
-        <v>488.7139974855839</v>
+        <v>488.7139974855838</v>
       </c>
       <c r="N35" t="n">
-        <v>475.1362156529494</v>
+        <v>475.1362156529493</v>
       </c>
       <c r="O35" t="n">
-        <v>395.8869588796997</v>
+        <v>395.8869588796996</v>
       </c>
       <c r="P35" t="n">
-        <v>305.3980775473898</v>
+        <v>305.3980775473897</v>
       </c>
       <c r="Q35" t="n">
         <v>151.6603550727114</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.20510579314997</v>
+        <v>87.20510579314995</v>
       </c>
       <c r="K36" t="n">
         <v>276.8318792575583</v>
@@ -37391,16 +37391,16 @@
         <v>430.0563181302384</v>
       </c>
       <c r="M36" t="n">
-        <v>108.262269831834</v>
+        <v>560.5791912345597</v>
       </c>
       <c r="N36" t="n">
-        <v>588.9462594289411</v>
+        <v>136.6293380262154</v>
       </c>
       <c r="O36" t="n">
         <v>462.4998264095568</v>
       </c>
       <c r="P36" t="n">
-        <v>358.3896953107211</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q36" t="n">
         <v>194.9563515722548</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.1014645491727</v>
+        <v>61.10146454917268</v>
       </c>
       <c r="L37" t="n">
         <v>136.3759983310584</v>
@@ -37476,10 +37476,10 @@
         <v>155.3891005898557</v>
       </c>
       <c r="O37" t="n">
-        <v>132.4981431105761</v>
+        <v>132.498143110576</v>
       </c>
       <c r="P37" t="n">
-        <v>91.87588354669042</v>
+        <v>91.8758835466904</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9545372092163</v>
+        <v>116.9545372092172</v>
       </c>
       <c r="K38" t="n">
         <v>308.8534408869687</v>
       </c>
       <c r="L38" t="n">
-        <v>433.6347585532896</v>
+        <v>433.6347585532895</v>
       </c>
       <c r="M38" t="n">
-        <v>488.7139974855796</v>
+        <v>488.7139974855838</v>
       </c>
       <c r="N38" t="n">
-        <v>475.1362156529494</v>
+        <v>475.1362156529493</v>
       </c>
       <c r="O38" t="n">
-        <v>395.8869588796997</v>
+        <v>395.8869588796996</v>
       </c>
       <c r="P38" t="n">
-        <v>305.3980775473898</v>
+        <v>305.3980775473897</v>
       </c>
       <c r="Q38" t="n">
         <v>151.6603550727114</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.94450252066258</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>276.8318792575583</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>430.0563181302384</v>
       </c>
       <c r="M39" t="n">
-        <v>560.5791912345599</v>
+        <v>390.4237271972389</v>
       </c>
       <c r="N39" t="n">
         <v>588.9462594289411</v>
@@ -37637,10 +37637,10 @@
         <v>462.4998264095568</v>
       </c>
       <c r="P39" t="n">
-        <v>358.3896953107211</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.9563515722548</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>61.1014645491727</v>
+        <v>61.10146454917268</v>
       </c>
       <c r="L40" t="n">
         <v>136.3759983310584</v>
@@ -37713,10 +37713,10 @@
         <v>155.3891005898557</v>
       </c>
       <c r="O40" t="n">
-        <v>132.4981431105761</v>
+        <v>132.498143110576</v>
       </c>
       <c r="P40" t="n">
-        <v>91.87588354669042</v>
+        <v>91.8758835466904</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9545372092163</v>
+        <v>116.9545372092162</v>
       </c>
       <c r="K41" t="n">
         <v>308.8534408869687</v>
       </c>
       <c r="L41" t="n">
-        <v>433.6347585532896</v>
+        <v>433.6347585532895</v>
       </c>
       <c r="M41" t="n">
-        <v>488.7139974855839</v>
+        <v>488.7139974855838</v>
       </c>
       <c r="N41" t="n">
-        <v>475.1362156529494</v>
+        <v>475.1362156529493</v>
       </c>
       <c r="O41" t="n">
-        <v>395.8869588796997</v>
+        <v>395.8869588796996</v>
       </c>
       <c r="P41" t="n">
-        <v>305.3980775473898</v>
+        <v>305.3980775473897</v>
       </c>
       <c r="Q41" t="n">
         <v>151.6603550727114</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.94450252066258</v>
+        <v>87.20510579314995</v>
       </c>
       <c r="K42" t="n">
         <v>276.8318792575583</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>430.0563181302384</v>
       </c>
       <c r="M42" t="n">
-        <v>560.5791912345599</v>
+        <v>560.5791912345597</v>
       </c>
       <c r="N42" t="n">
-        <v>588.9462594289411</v>
+        <v>136.6293380262154</v>
       </c>
       <c r="O42" t="n">
         <v>462.4998264095568</v>
       </c>
       <c r="P42" t="n">
-        <v>358.3896953107211</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q42" t="n">
         <v>194.9563515722548</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>61.1014645491727</v>
+        <v>61.10146454917268</v>
       </c>
       <c r="L43" t="n">
         <v>136.3759983310584</v>
@@ -37950,10 +37950,10 @@
         <v>155.3891005898557</v>
       </c>
       <c r="O43" t="n">
-        <v>132.4981431105761</v>
+        <v>132.498143110576</v>
       </c>
       <c r="P43" t="n">
-        <v>91.87588354669042</v>
+        <v>91.8758835466904</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9545372092163</v>
+        <v>116.9545372092162</v>
       </c>
       <c r="K44" t="n">
         <v>308.8534408869687</v>
       </c>
       <c r="L44" t="n">
-        <v>433.6347585532856</v>
+        <v>433.6347585532895</v>
       </c>
       <c r="M44" t="n">
-        <v>488.7139974855839</v>
+        <v>488.7139974855838</v>
       </c>
       <c r="N44" t="n">
         <v>475.1362156529493</v>
@@ -38032,10 +38032,10 @@
         <v>395.8869588796996</v>
       </c>
       <c r="P44" t="n">
-        <v>305.3980775473898</v>
+        <v>305.3980775473897</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.6603550727114</v>
+        <v>151.6603550727121</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.20510579314997</v>
+        <v>87.20510579314995</v>
       </c>
       <c r="K45" t="n">
         <v>276.8318792575583</v>
@@ -38105,16 +38105,16 @@
         <v>560.5791912345597</v>
       </c>
       <c r="N45" t="n">
-        <v>331.58568959847</v>
+        <v>136.6293380262154</v>
       </c>
       <c r="O45" t="n">
         <v>462.4998264095568</v>
       </c>
       <c r="P45" t="n">
-        <v>358.3896953107211</v>
+        <v>358.389695310721</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>194.9563515722548</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5099299179916272</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.839288435841138</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.10146454917269</v>
+        <v>61.10146454917268</v>
       </c>
       <c r="L46" t="n">
         <v>136.3759983310584</v>
@@ -38187,16 +38187,16 @@
         <v>155.3891005898557</v>
       </c>
       <c r="O46" t="n">
-        <v>132.4981431105761</v>
+        <v>132.498143110576</v>
       </c>
       <c r="P46" t="n">
-        <v>91.87588354669042</v>
+        <v>91.8758835466904</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.349218353832858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
